--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -9,6 +9,71 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B71">
+      <text>
+        <t xml:space="preserve">(PTZ-430, PTZ-431W, PTZ-630, PTZ-631W, PTZ-930, PTZ-1230, PTZ-1231W)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B72">
+      <text>
+        <t xml:space="preserve">(XD-0405-U, XD-0608-U, XD-0912-U, XD-1212-U,  XD-1218-U)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B73">
+      <text>
+        <t xml:space="preserve">(GD-0405-U, GD-0608-U, GD-0912-U, GD-1212-U, GD-1218-U)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B74">
+      <text>
+        <t xml:space="preserve">(CTE-460, CTE-660)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B76">
+      <text>
+        <t xml:space="preserve">(CTE-450, CTE-650)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B77">
+      <text>
+        <t xml:space="preserve">(CTE-440, CTE-640)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B78">
+      <text>
+        <t xml:space="preserve">(CTE-430, CTE-630)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B79">
+      <text>
+        <t xml:space="preserve">(FW-300, FB-630)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B80">
+      <text>
+        <t xml:space="preserve">(CTF-430, CTF-221, CTF-420)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B81">
+      <text>
+        <t xml:space="preserve">(FT-0203-U, FT-0405-U)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B82">
+      <text>
+        <t xml:space="preserve">(ET-0405A-U, ET-0507A-U)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +442,7 @@
     <t>70-80 USD</t>
   </si>
   <si>
-    <t>Hardware smoothing is disabled when pen pressure is detected.</t>
+    <t>Hardware smoothing is disabled when pen pressure is detected, minor anti-chatter remains.</t>
   </si>
   <si>
     <t>Secondhand Mid Budget Options</t>
@@ -32103,12 +32168,13 @@
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A68"/>
+    <hyperlink r:id="rId2" ref="A68"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -508,7 +508,7 @@
     <t>Extremely High</t>
   </si>
   <si>
-    <t>Boosted report rate compared to consumer line wacom tablets, and the absolute best in raw performance.</t>
+    <t>Boosted report rate compared to consumer line wacom tablets, and extremely minor anti-chatter on hover.</t>
   </si>
   <si>
     <t>PTH-660</t>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -17,57 +17,57 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B71">
+    <comment authorId="0" ref="B72">
       <text>
         <t xml:space="preserve">(PTZ-430, PTZ-431W, PTZ-630, PTZ-631W, PTZ-930, PTZ-1230, PTZ-1231W)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B72">
+    <comment authorId="0" ref="B73">
       <text>
         <t xml:space="preserve">(XD-0405-U, XD-0608-U, XD-0912-U, XD-1212-U,  XD-1218-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B73">
+    <comment authorId="0" ref="B74">
       <text>
         <t xml:space="preserve">(GD-0405-U, GD-0608-U, GD-0912-U, GD-1212-U, GD-1218-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B74">
+    <comment authorId="0" ref="B75">
       <text>
         <t xml:space="preserve">(CTE-460, CTE-660)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B76">
+    <comment authorId="0" ref="B77">
       <text>
         <t xml:space="preserve">(CTE-450, CTE-650)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B77">
+    <comment authorId="0" ref="B78">
       <text>
         <t xml:space="preserve">(CTE-440, CTE-640)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B78">
+    <comment authorId="0" ref="B79">
       <text>
         <t xml:space="preserve">(CTE-430, CTE-630)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B79">
+    <comment authorId="0" ref="B80">
       <text>
         <t xml:space="preserve">(FW-300, FB-630)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B80">
+    <comment authorId="0" ref="B81">
       <text>
         <t xml:space="preserve">(CTF-430, CTF-221, CTF-420)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B81">
+    <comment authorId="0" ref="B82">
       <text>
         <t xml:space="preserve">(FT-0203-U, FT-0405-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B82">
+    <comment authorId="0" ref="B83">
       <text>
         <t xml:space="preserve">(ET-0405A-U, ET-0507A-U)</t>
       </text>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="216">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -430,10 +430,16 @@
     <t>CTL-672</t>
   </si>
   <si>
-    <t>Highly Recommended for Mid Budget</t>
+    <t>70-90 USD</t>
   </si>
   <si>
-    <t>70-90 USD</t>
+    <t>CTC-4110WL</t>
+  </si>
+  <si>
+    <t>90-130 USD</t>
+  </si>
+  <si>
+    <t>Slight input glitching and report rate dropping when pressing pen side buttons.</t>
   </si>
   <si>
     <t>CTL-4100</t>
@@ -526,10 +532,10 @@
     <t>L</t>
   </si>
   <si>
-    <t>Not Recommended For High Budget</t>
+    <t>CTC-6110WL</t>
   </si>
   <si>
-    <t>130 USD</t>
+    <t>140-165 USD</t>
   </si>
   <si>
     <t>CTL-6100</t>
@@ -548,6 +554,9 @@
   </si>
   <si>
     <t>Secondhand High Budget Options</t>
+  </si>
+  <si>
+    <t>Not Recommended For High Budget</t>
   </si>
   <si>
     <t>150-200 USD</t>
@@ -3094,13 +3103,13 @@
         <v>116</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>94</v>
@@ -3142,34 +3151,34 @@
         <v>90</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>40</v>
+      <c r="F39" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>65</v>
+      <c r="H39" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>96</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
@@ -3189,59 +3198,59 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
+      <c r="F40" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>17</v>
+      <c r="A41" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3261,71 +3270,71 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
+      <c r="A42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>24</v>
@@ -3343,7 +3352,7 @@
         <v>99</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
@@ -3367,16 +3376,16 @@
         <v>90</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>24</v>
@@ -3394,7 +3403,7 @@
         <v>99</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
@@ -3421,19 +3430,19 @@
         <v>129</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>45</v>
+      <c r="G45" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>95</v>
@@ -3445,7 +3454,7 @@
         <v>99</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
@@ -3469,22 +3478,22 @@
         <v>90</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="19" t="s">
         <v>131</v>
       </c>
+      <c r="C46" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="D46" s="14" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="31" t="s">
         <v>24</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>95</v>
@@ -3496,7 +3505,7 @@
         <v>99</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
@@ -3520,22 +3529,22 @@
         <v>90</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>45</v>
+      <c r="G47" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>95</v>
@@ -3544,9 +3553,11 @@
         <v>96</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="30"/>
+        <v>99</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
@@ -3572,13 +3583,13 @@
         <v>134</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>94</v>
@@ -3590,10 +3601,10 @@
         <v>95</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="K48" s="30"/>
       <c r="L48" s="17"/>
@@ -3618,16 +3629,16 @@
         <v>90</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>31</v>
+        <v>136</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F49" s="29" t="s">
         <v>94</v>
@@ -3639,14 +3650,12 @@
         <v>95</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>100</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K49" s="30"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
@@ -3672,31 +3681,31 @@
         <v>137</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>40</v>
+        <v>138</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="G50" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="19" t="s">
-        <v>65</v>
+      <c r="H50" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
@@ -3716,59 +3725,59 @@
       <c r="AA50" s="17"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
+      <c r="A51" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>17</v>
+      <c r="A52" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3788,62 +3797,62 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
+      <c r="A53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>37</v>
@@ -3852,25 +3861,25 @@
         <v>49</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>45</v>
+        <v>143</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J54" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
@@ -3906,22 +3915,22 @@
         <v>147</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J55" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
@@ -3945,34 +3954,34 @@
         <v>90</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="F56" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
@@ -3999,31 +4008,31 @@
         <v>151</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="21" t="s">
-        <v>40</v>
+      <c r="F57" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="19" t="s">
-        <v>65</v>
+      <c r="H57" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>96</v>
       </c>
       <c r="J57" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
@@ -4043,11 +4052,11 @@
       <c r="AA57" s="17"/>
     </row>
     <row r="58">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>154</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>81</v>
@@ -4056,46 +4065,76 @@
         <v>82</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>24</v>
+        <v>154</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>65</v>
       </c>
       <c r="I58" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="J59" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K58" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>156</v>
+      <c r="K59" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4115,38 +4154,8 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>17</v>
+      <c r="A60" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4166,68 +4175,68 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
+      <c r="A61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>108</v>
+        <v>129</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>160</v>
@@ -4235,8 +4244,8 @@
       <c r="F62" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G62" s="22" t="s">
-        <v>45</v>
+      <c r="G62" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>95</v>
@@ -4248,7 +4257,7 @@
         <v>99</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
@@ -4278,10 +4287,10 @@
         <v>108</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>24</v>
@@ -4299,7 +4308,7 @@
         <v>99</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
@@ -4323,22 +4332,22 @@
         <v>90</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="32" t="s">
-        <v>148</v>
+      <c r="G64" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>95</v>
@@ -4350,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
@@ -4374,22 +4383,22 @@
         <v>90</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F65" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>95</v>
@@ -4401,7 +4410,7 @@
         <v>99</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -4425,22 +4434,22 @@
         <v>90</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>95</v>
@@ -4452,7 +4461,7 @@
         <v>99</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
@@ -4472,29 +4481,59 @@
       <c r="AA66" s="17"/>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
+      <c r="A67" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
     </row>
     <row r="68">
-      <c r="A68" s="34" t="s">
-        <v>169</v>
+      <c r="A68" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4514,128 +4553,98 @@
       <c r="AA68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B70" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C70" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D70" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E70" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="35" t="s">
+      <c r="G70" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="35" t="s">
+      <c r="H70" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="36" t="s">
+      <c r="I70" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="35" t="s">
+      <c r="J70" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K69" s="35" t="s">
+      <c r="K70" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="37"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="17"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="F71" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G71" s="12" t="s">
-        <v>178</v>
+      <c r="G71" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>95</v>
@@ -4644,10 +4653,10 @@
         <v>96</v>
       </c>
       <c r="J71" s="27" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
@@ -4674,19 +4683,19 @@
         <v>179</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F72" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>95</v>
@@ -4695,10 +4704,10 @@
         <v>96</v>
       </c>
       <c r="J72" s="27" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
@@ -4722,22 +4731,22 @@
         <v>90</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>95</v>
@@ -4746,10 +4755,10 @@
         <v>96</v>
       </c>
       <c r="J73" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
@@ -4773,34 +4782,34 @@
         <v>90</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="J74" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
@@ -4830,27 +4839,29 @@
         <v>98</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K75" s="30"/>
+        <v>187</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
@@ -4873,31 +4884,31 @@
         <v>90</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="K76" s="30"/>
       <c r="L76" s="17"/>
@@ -4922,22 +4933,22 @@
         <v>90</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F77" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>95</v>
@@ -4946,11 +4957,9 @@
         <v>26</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>190</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="K77" s="30"/>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
@@ -4979,10 +4988,10 @@
         <v>98</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>94</v>
@@ -4997,10 +5006,10 @@
         <v>26</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
@@ -5024,22 +5033,22 @@
         <v>90</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="19" t="s">
-        <v>194</v>
+      <c r="G79" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>95</v>
@@ -5048,10 +5057,10 @@
         <v>26</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
@@ -5075,22 +5084,22 @@
         <v>90</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>95</v>
@@ -5099,10 +5108,10 @@
         <v>26</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
@@ -5126,22 +5135,22 @@
         <v>90</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>95</v>
@@ -5150,10 +5159,10 @@
         <v>26</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
@@ -5177,22 +5186,22 @@
         <v>90</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>200</v>
+      <c r="G82" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>95</v>
@@ -5201,10 +5210,10 @@
         <v>26</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
@@ -5228,22 +5237,22 @@
         <v>90</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>95</v>
@@ -5252,10 +5261,10 @@
         <v>26</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>
@@ -5279,16 +5288,16 @@
         <v>90</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>94</v>
@@ -5303,10 +5312,10 @@
         <v>26</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
@@ -5326,17 +5335,39 @@
       <c r="AA84" s="17"/>
     </row>
     <row r="85">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
+      <c r="A85" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
@@ -32150,15 +32181,44 @@
       <c r="Z1009" s="17"/>
       <c r="AA1009" s="17"/>
     </row>
+    <row r="1010">
+      <c r="A1010" s="17"/>
+      <c r="B1010" s="17"/>
+      <c r="C1010" s="17"/>
+      <c r="D1010" s="17"/>
+      <c r="E1010" s="17"/>
+      <c r="F1010" s="17"/>
+      <c r="G1010" s="17"/>
+      <c r="H1010" s="17"/>
+      <c r="I1010" s="17"/>
+      <c r="J1010" s="17"/>
+      <c r="K1010" s="17"/>
+      <c r="L1010" s="17"/>
+      <c r="M1010" s="17"/>
+      <c r="N1010" s="17"/>
+      <c r="O1010" s="17"/>
+      <c r="P1010" s="17"/>
+      <c r="Q1010" s="17"/>
+      <c r="R1010" s="17"/>
+      <c r="S1010" s="17"/>
+      <c r="T1010" s="17"/>
+      <c r="U1010" s="17"/>
+      <c r="V1010" s="17"/>
+      <c r="W1010" s="17"/>
+      <c r="X1010" s="17"/>
+      <c r="Y1010" s="17"/>
+      <c r="Z1010" s="17"/>
+      <c r="AA1010" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A60:K60"/>
     <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A69:K69"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32168,7 +32228,7 @@
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="A68"/>
+    <hyperlink r:id="rId2" ref="A69"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -32190,12 +32250,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="40" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
@@ -32211,42 +32271,42 @@
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="41" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="41" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -439,7 +439,7 @@
     <t>90-130 USD</t>
   </si>
   <si>
-    <t>Slight input glitching and report rate dropping when pressing pen side buttons.</t>
+    <t>Slight input glitching, report rate dropping when pressing pen side buttons, and horribly low interpolated pressure resolution (this is bad for drawing).</t>
   </si>
   <si>
     <t>CTL-4100</t>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -439,7 +439,7 @@
     <t>90-130 USD</t>
   </si>
   <si>
-    <t>Slight input glitching, report rate dropping when pressing pen side buttons, and horribly low interpolated pressure resolution (this is bad for drawing).</t>
+    <t>Slight input glitching, report rate dropping when pressing pen side buttons, and horrible glitchy pressure (this is bad for drawing).</t>
   </si>
   <si>
     <t>CTL-4100</t>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="217">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>70-90 USD</t>
+  </si>
+  <si>
+    <t>May have issues reporting correct hover distance measurements and under rare conditions, may have input dropping or jumping when pressing pen side buttons.</t>
   </si>
   <si>
     <t>CTC-4110WL</t>
@@ -3127,7 +3130,7 @@
         <v>103</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -3151,7 +3154,7 @@
         <v>90</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>62</v>
@@ -3160,7 +3163,7 @@
         <v>70</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>23</v>
@@ -3178,7 +3181,7 @@
         <v>99</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
@@ -3202,7 +3205,7 @@
         <v>90</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>81</v>
@@ -3211,7 +3214,7 @@
         <v>74</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>40</v>
@@ -3229,7 +3232,7 @@
         <v>103</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
@@ -3250,7 +3253,7 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3325,7 +3328,7 @@
         <v>90</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>108</v>
@@ -3334,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>24</v>
@@ -3352,7 +3355,7 @@
         <v>99</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
@@ -3376,7 +3379,7 @@
         <v>90</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>20</v>
@@ -3403,7 +3406,7 @@
         <v>99</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
@@ -3427,7 +3430,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>108</v>
@@ -3436,7 +3439,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>24</v>
@@ -3454,7 +3457,7 @@
         <v>99</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
@@ -3478,7 +3481,7 @@
         <v>90</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>20</v>
@@ -3487,7 +3490,7 @@
         <v>21</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>24</v>
@@ -3505,7 +3508,7 @@
         <v>99</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
@@ -3532,13 +3535,13 @@
         <v>97</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>94</v>
@@ -3580,7 +3583,7 @@
         <v>90</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>20</v>
@@ -3589,7 +3592,7 @@
         <v>21</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>94</v>
@@ -3629,7 +3632,7 @@
         <v>90</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>108</v>
@@ -3678,7 +3681,7 @@
         <v>90</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>31</v>
@@ -3687,7 +3690,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F50" s="29" t="s">
         <v>94</v>
@@ -3729,7 +3732,7 @@
         <v>90</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>81</v>
@@ -3777,7 +3780,7 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3852,7 +3855,7 @@
         <v>90</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>37</v>
@@ -3861,10 +3864,10 @@
         <v>49</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>24</v>
@@ -3873,13 +3876,13 @@
         <v>95</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J54" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
@@ -3903,7 +3906,7 @@
         <v>90</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>37</v>
@@ -3912,10 +3915,10 @@
         <v>49</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G55" s="22" t="s">
         <v>45</v>
@@ -3924,13 +3927,13 @@
         <v>95</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J55" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
@@ -3954,7 +3957,7 @@
         <v>90</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>37</v>
@@ -3963,25 +3966,25 @@
         <v>49</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J56" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
@@ -4005,7 +4008,7 @@
         <v>90</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>62</v>
@@ -4014,7 +4017,7 @@
         <v>74</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>23</v>
@@ -4032,7 +4035,7 @@
         <v>99</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
@@ -4056,7 +4059,7 @@
         <v>90</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>81</v>
@@ -4065,7 +4068,7 @@
         <v>82</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>40</v>
@@ -4083,7 +4086,7 @@
         <v>103</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
@@ -4104,10 +4107,10 @@
     </row>
     <row r="59">
       <c r="A59" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>81</v>
@@ -4116,7 +4119,7 @@
         <v>82</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F59" s="32" t="s">
         <v>83</v>
@@ -4134,7 +4137,7 @@
         <v>27</v>
       </c>
       <c r="K59" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4155,7 +4158,7 @@
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4230,16 +4233,16 @@
         <v>90</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F62" s="31" t="s">
         <v>24</v>
@@ -4257,7 +4260,7 @@
         <v>99</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
@@ -4281,16 +4284,16 @@
         <v>90</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>24</v>
@@ -4308,7 +4311,7 @@
         <v>99</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
@@ -4332,7 +4335,7 @@
         <v>90</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>108</v>
@@ -4341,7 +4344,7 @@
         <v>38</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>24</v>
@@ -4359,7 +4362,7 @@
         <v>99</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
@@ -4383,22 +4386,22 @@
         <v>90</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F65" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>95</v>
@@ -4410,7 +4413,7 @@
         <v>99</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -4434,7 +4437,7 @@
         <v>90</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>108</v>
@@ -4443,13 +4446,13 @@
         <v>92</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>95</v>
@@ -4461,7 +4464,7 @@
         <v>99</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
@@ -4485,7 +4488,7 @@
         <v>90</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>108</v>
@@ -4494,13 +4497,13 @@
         <v>21</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>95</v>
@@ -4512,7 +4515,7 @@
         <v>99</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
@@ -4533,7 +4536,7 @@
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4554,7 +4557,7 @@
     </row>
     <row r="69">
       <c r="A69" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4629,22 +4632,22 @@
         <v>90</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F71" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>95</v>
@@ -4656,7 +4659,7 @@
         <v>99</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
@@ -4680,22 +4683,22 @@
         <v>90</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F72" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>95</v>
@@ -4707,7 +4710,7 @@
         <v>27</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
@@ -4731,22 +4734,22 @@
         <v>90</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>95</v>
@@ -4755,10 +4758,10 @@
         <v>96</v>
       </c>
       <c r="J73" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
@@ -4782,22 +4785,22 @@
         <v>90</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F74" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>95</v>
@@ -4806,10 +4809,10 @@
         <v>96</v>
       </c>
       <c r="J74" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
@@ -4833,22 +4836,22 @@
         <v>90</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>95</v>
@@ -4857,7 +4860,7 @@
         <v>26</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>106</v>
@@ -4884,16 +4887,16 @@
         <v>90</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>94</v>
@@ -4933,22 +4936,22 @@
         <v>90</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F77" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>95</v>
@@ -4957,7 +4960,7 @@
         <v>26</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="17"/>
@@ -4982,22 +4985,22 @@
         <v>90</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>95</v>
@@ -5006,10 +5009,10 @@
         <v>26</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
@@ -5033,22 +5036,22 @@
         <v>90</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>95</v>
@@ -5057,10 +5060,10 @@
         <v>26</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
@@ -5084,22 +5087,22 @@
         <v>90</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>95</v>
@@ -5108,10 +5111,10 @@
         <v>26</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
@@ -5135,22 +5138,22 @@
         <v>90</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>95</v>
@@ -5159,10 +5162,10 @@
         <v>26</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
@@ -5186,22 +5189,22 @@
         <v>90</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>95</v>
@@ -5210,10 +5213,10 @@
         <v>26</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
@@ -5237,22 +5240,22 @@
         <v>90</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>95</v>
@@ -5261,10 +5264,10 @@
         <v>26</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>
@@ -5288,16 +5291,16 @@
         <v>90</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>94</v>
@@ -5312,10 +5315,10 @@
         <v>26</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
@@ -5339,16 +5342,16 @@
         <v>90</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>94</v>
@@ -5363,10 +5366,10 @@
         <v>26</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -32250,12 +32253,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
@@ -32271,42 +32274,42 @@
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="218">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -915,6 +915,9 @@
     <t>Kuuube's Wacom Pen Nib Guide</t>
   </si>
   <si>
+    <t>Kuuube's Wacom Pen Nib Compatibility Mastersheet</t>
+  </si>
+  <si>
     <t>Info</t>
   </si>
   <si>
@@ -937,7 +940,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1101,6 +1104,18 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="15.0"/>
       <color rgb="FFFF1600"/>
@@ -1121,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1249,6 +1264,12 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -32278,22 +32299,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="44" t="s">
         <v>213</v>
       </c>
     </row>
@@ -32312,30 +32333,37 @@
         <v>216</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A8:K8"/>
+  <mergeCells count="13">
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A3"/>
     <hyperlink r:id="rId2" ref="A5"/>
     <hyperlink r:id="rId3" ref="A6"/>
-    <hyperlink r:id="rId4" ref="A9"/>
+    <hyperlink r:id="rId4" ref="A7"/>
     <hyperlink r:id="rId5" ref="A10"/>
     <hyperlink r:id="rId6" ref="A11"/>
     <hyperlink r:id="rId7" ref="A12"/>
+    <hyperlink r:id="rId8" ref="A13"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -17,57 +17,57 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B72">
+    <comment authorId="0" ref="B75">
       <text>
         <t xml:space="preserve">(PTZ-430, PTZ-431W, PTZ-630, PTZ-631W, PTZ-930, PTZ-1230, PTZ-1231W)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B73">
+    <comment authorId="0" ref="B76">
       <text>
         <t xml:space="preserve">(XD-0405-U, XD-0608-U, XD-0912-U, XD-1212-U,  XD-1218-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B74">
+    <comment authorId="0" ref="B77">
       <text>
         <t xml:space="preserve">(GD-0405-U, GD-0608-U, GD-0912-U, GD-1212-U, GD-1218-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B75">
+    <comment authorId="0" ref="B78">
       <text>
         <t xml:space="preserve">(CTE-460, CTE-660)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B77">
+    <comment authorId="0" ref="B80">
       <text>
         <t xml:space="preserve">(CTE-450, CTE-650)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B78">
+    <comment authorId="0" ref="B81">
       <text>
         <t xml:space="preserve">(CTE-440, CTE-640)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B79">
+    <comment authorId="0" ref="B82">
       <text>
         <t xml:space="preserve">(CTE-430, CTE-630)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B80">
+    <comment authorId="0" ref="B83">
       <text>
         <t xml:space="preserve">(FW-300, FB-630)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B81">
+    <comment authorId="0" ref="B84">
       <text>
         <t xml:space="preserve">(CTF-430, CTF-221, CTF-420)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B82">
+    <comment authorId="0" ref="B85">
       <text>
         <t xml:space="preserve">(FT-0203-U, FT-0405-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B83">
+    <comment authorId="0" ref="B86">
       <text>
         <t xml:space="preserve">(ET-0405A-U, ET-0507A-U)</t>
       </text>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="226">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -535,6 +535,33 @@
     <t>L</t>
   </si>
   <si>
+    <t>Deco Pro MW Gen2</t>
+  </si>
+  <si>
+    <t>140 USD</t>
+  </si>
+  <si>
+    <t>Hardware smoothing changes to Decent and anti-chatter is disabled when pen pressure is detected, horrible anti-chatter when hovering low, and glitchy hover/drag transition.</t>
+  </si>
+  <si>
+    <t>Deco Pro LW Gen2</t>
+  </si>
+  <si>
+    <t>170 USD</t>
+  </si>
+  <si>
+    <t>M+</t>
+  </si>
+  <si>
+    <t>Deco Pro XLW Gen2</t>
+  </si>
+  <si>
+    <t>200 USD</t>
+  </si>
+  <si>
+    <t>L+</t>
+  </si>
+  <si>
     <t>CTC-6110WL</t>
   </si>
   <si>
@@ -542,9 +569,6 @@
   </si>
   <si>
     <t>CTL-6100</t>
-  </si>
-  <si>
-    <t>200 USD</t>
   </si>
   <si>
     <t>Xencelabs</t>
@@ -1494,7 +1518,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.86"/>
-    <col customWidth="1" min="2" max="2" width="15.29"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
     <col customWidth="1" min="3" max="3" width="36.14"/>
     <col customWidth="1" min="4" max="4" width="25.71"/>
     <col customWidth="1" min="5" max="5" width="17.14"/>
@@ -1503,7 +1527,7 @@
     <col customWidth="1" min="8" max="8" width="19.57"/>
     <col customWidth="1" min="9" max="9" width="14.29"/>
     <col customWidth="1" min="10" max="10" width="18.14"/>
-    <col customWidth="1" min="11" max="11" width="145.14"/>
+    <col customWidth="1" min="11" max="11" width="149.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4026,37 +4050,37 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>23</v>
+      <c r="F57" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>25</v>
+      <c r="H57" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J57" s="27" t="s">
-        <v>99</v>
+      <c r="J57" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
@@ -4077,10 +4101,10 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>81</v>
@@ -4089,13 +4113,13 @@
         <v>82</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>40</v>
+        <v>156</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>65</v>
@@ -4103,11 +4127,11 @@
       <c r="I58" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J58" s="27" t="s">
-        <v>103</v>
+      <c r="J58" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
@@ -4127,11 +4151,11 @@
       <c r="AA58" s="17"/>
     </row>
     <row r="59">
-      <c r="A59" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>157</v>
+      <c r="A59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>81</v>
@@ -4140,289 +4164,289 @@
         <v>82</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>24</v>
+        <v>159</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>65</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K59" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
+      <c r="K59" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
+      <c r="F61" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>130</v>
+      <c r="A62" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>24</v>
+        <v>159</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>95</v>
+      <c r="H62" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
-      <c r="Z62" s="17"/>
-      <c r="AA62" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17"/>
+      <c r="A63" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
+      <c r="A64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>108</v>
+        <v>130</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F65" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="32" t="s">
-        <v>151</v>
+      <c r="G65" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>95</v>
@@ -4434,7 +4458,7 @@
         <v>99</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -4458,22 +4482,22 @@
         <v>90</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="32" t="s">
-        <v>151</v>
+      <c r="G66" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>95</v>
@@ -4509,22 +4533,22 @@
         <v>90</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="32" t="s">
-        <v>151</v>
+      <c r="G67" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>95</v>
@@ -4556,272 +4580,272 @@
       <c r="AA67" s="17"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="35" t="s">
+      <c r="F70" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="17"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B73" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C73" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D73" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E73" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F73" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="35" t="s">
+      <c r="G73" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="35" t="s">
+      <c r="H73" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="36" t="s">
+      <c r="I73" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="35" t="s">
+      <c r="J73" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="35" t="s">
+      <c r="K73" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
-      <c r="Z70" s="37"/>
-      <c r="AA70" s="37"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="17"/>
-      <c r="AA72" s="17"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
-      <c r="X73" s="17"/>
-      <c r="Y73" s="17"/>
-      <c r="Z73" s="17"/>
-      <c r="AA73" s="17"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="F74" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>182</v>
+      <c r="G74" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>95</v>
@@ -4830,10 +4854,10 @@
         <v>96</v>
       </c>
       <c r="J74" s="27" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
@@ -4857,34 +4881,34 @@
         <v>90</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
@@ -4908,33 +4932,35 @@
         <v>90</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="D76" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F76" s="31" t="s">
         <v>24</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K76" s="30"/>
+        <v>192</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
@@ -4957,33 +4983,35 @@
         <v>90</v>
       </c>
       <c r="B77" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="K77" s="30"/>
+        <v>192</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
@@ -5006,22 +5034,22 @@
         <v>90</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>95</v>
@@ -5030,10 +5058,10 @@
         <v>26</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
@@ -5057,35 +5085,33 @@
         <v>90</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="K79" s="12" t="s">
-        <v>194</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K79" s="30"/>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
@@ -5108,22 +5134,22 @@
         <v>90</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G80" s="19" t="s">
-        <v>198</v>
+      <c r="G80" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>95</v>
@@ -5132,11 +5158,9 @@
         <v>26</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>194</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K80" s="30"/>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
@@ -5159,22 +5183,22 @@
         <v>90</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G81" s="19" t="s">
-        <v>200</v>
+      <c r="G81" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>95</v>
@@ -5183,10 +5207,10 @@
         <v>26</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
@@ -5210,22 +5234,22 @@
         <v>90</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G82" s="19" t="s">
-        <v>202</v>
+      <c r="G82" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>95</v>
@@ -5234,10 +5258,10 @@
         <v>26</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
@@ -5261,22 +5285,22 @@
         <v>90</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G83" s="16" t="s">
-        <v>204</v>
+      <c r="G83" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>95</v>
@@ -5285,10 +5309,10 @@
         <v>26</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>
@@ -5312,22 +5336,22 @@
         <v>90</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>24</v>
+      <c r="G84" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>95</v>
@@ -5336,10 +5360,10 @@
         <v>26</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
@@ -5363,22 +5387,22 @@
         <v>90</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G85" s="16" t="s">
-        <v>24</v>
+      <c r="G85" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>95</v>
@@ -5387,10 +5411,10 @@
         <v>26</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -5410,17 +5434,39 @@
       <c r="AA85" s="17"/>
     </row>
     <row r="86">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
+      <c r="A86" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
@@ -5439,17 +5485,39 @@
       <c r="AA86" s="17"/>
     </row>
     <row r="87">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
+      <c r="A87" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
@@ -5468,17 +5536,39 @@
       <c r="AA87" s="17"/>
     </row>
     <row r="88">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
+      <c r="A88" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
@@ -32234,15 +32324,102 @@
       <c r="Z1010" s="17"/>
       <c r="AA1010" s="17"/>
     </row>
+    <row r="1011">
+      <c r="A1011" s="17"/>
+      <c r="B1011" s="17"/>
+      <c r="C1011" s="17"/>
+      <c r="D1011" s="17"/>
+      <c r="E1011" s="17"/>
+      <c r="F1011" s="17"/>
+      <c r="G1011" s="17"/>
+      <c r="H1011" s="17"/>
+      <c r="I1011" s="17"/>
+      <c r="J1011" s="17"/>
+      <c r="K1011" s="17"/>
+      <c r="L1011" s="17"/>
+      <c r="M1011" s="17"/>
+      <c r="N1011" s="17"/>
+      <c r="O1011" s="17"/>
+      <c r="P1011" s="17"/>
+      <c r="Q1011" s="17"/>
+      <c r="R1011" s="17"/>
+      <c r="S1011" s="17"/>
+      <c r="T1011" s="17"/>
+      <c r="U1011" s="17"/>
+      <c r="V1011" s="17"/>
+      <c r="W1011" s="17"/>
+      <c r="X1011" s="17"/>
+      <c r="Y1011" s="17"/>
+      <c r="Z1011" s="17"/>
+      <c r="AA1011" s="17"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="17"/>
+      <c r="B1012" s="17"/>
+      <c r="C1012" s="17"/>
+      <c r="D1012" s="17"/>
+      <c r="E1012" s="17"/>
+      <c r="F1012" s="17"/>
+      <c r="G1012" s="17"/>
+      <c r="H1012" s="17"/>
+      <c r="I1012" s="17"/>
+      <c r="J1012" s="17"/>
+      <c r="K1012" s="17"/>
+      <c r="L1012" s="17"/>
+      <c r="M1012" s="17"/>
+      <c r="N1012" s="17"/>
+      <c r="O1012" s="17"/>
+      <c r="P1012" s="17"/>
+      <c r="Q1012" s="17"/>
+      <c r="R1012" s="17"/>
+      <c r="S1012" s="17"/>
+      <c r="T1012" s="17"/>
+      <c r="U1012" s="17"/>
+      <c r="V1012" s="17"/>
+      <c r="W1012" s="17"/>
+      <c r="X1012" s="17"/>
+      <c r="Y1012" s="17"/>
+      <c r="Z1012" s="17"/>
+      <c r="AA1012" s="17"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="17"/>
+      <c r="B1013" s="17"/>
+      <c r="C1013" s="17"/>
+      <c r="D1013" s="17"/>
+      <c r="E1013" s="17"/>
+      <c r="F1013" s="17"/>
+      <c r="G1013" s="17"/>
+      <c r="H1013" s="17"/>
+      <c r="I1013" s="17"/>
+      <c r="J1013" s="17"/>
+      <c r="K1013" s="17"/>
+      <c r="L1013" s="17"/>
+      <c r="M1013" s="17"/>
+      <c r="N1013" s="17"/>
+      <c r="O1013" s="17"/>
+      <c r="P1013" s="17"/>
+      <c r="Q1013" s="17"/>
+      <c r="R1013" s="17"/>
+      <c r="S1013" s="17"/>
+      <c r="T1013" s="17"/>
+      <c r="U1013" s="17"/>
+      <c r="V1013" s="17"/>
+      <c r="W1013" s="17"/>
+      <c r="X1013" s="17"/>
+      <c r="Y1013" s="17"/>
+      <c r="Z1013" s="17"/>
+      <c r="AA1013" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A72:K72"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32252,7 +32429,7 @@
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="A69"/>
+    <hyperlink r:id="rId2" ref="A72"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -32274,12 +32451,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="40" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -32295,47 +32472,47 @@
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="42" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="43" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="41" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="41" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="41" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="41" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -1160,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1189,13 +1189,13 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1265,12 +1265,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -1518,16 +1512,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.86"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="36.14"/>
-    <col customWidth="1" min="4" max="4" width="25.71"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="19.71"/>
+    <col customWidth="1" min="2" max="2" width="18.43"/>
+    <col customWidth="1" min="3" max="3" width="33.14"/>
+    <col customWidth="1" min="4" max="4" width="26.29"/>
+    <col customWidth="1" min="5" max="5" width="17.43"/>
+    <col customWidth="1" min="6" max="6" width="20.14"/>
     <col customWidth="1" min="7" max="7" width="5.0"/>
-    <col customWidth="1" min="8" max="8" width="19.57"/>
-    <col customWidth="1" min="9" max="9" width="14.29"/>
-    <col customWidth="1" min="10" max="10" width="18.14"/>
-    <col customWidth="1" min="11" max="11" width="149.14"/>
+    <col customWidth="1" min="8" max="8" width="20.0"/>
+    <col customWidth="1" min="9" max="9" width="14.57"/>
+    <col customWidth="1" min="10" max="10" width="18.0"/>
+    <col customWidth="1" min="11" max="11" width="152.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4775,55 +4769,55 @@
       <c r="AA72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="35" t="s">
+      <c r="G73" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="35" t="s">
+      <c r="H73" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="36" t="s">
+      <c r="I73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="35" t="s">
+      <c r="J73" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="35" t="s">
+      <c r="K73" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="37"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
@@ -4844,7 +4838,7 @@
       <c r="F74" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="36" t="s">
         <v>186</v>
       </c>
       <c r="H74" s="13" t="s">
@@ -32450,68 +32444,68 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="str">
+      <c r="A4" s="39" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/125LNzGmidy1gagwYUt12tRhrNdrWFHhWon7kxWY7iWU","Kuuube's Wacom Tablet Mastersheet")</f>
         <v>Kuuube's Wacom Tablet Mastersheet</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="38" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>225</v>
       </c>
     </row>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -17,57 +17,57 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B75">
+    <comment authorId="0" ref="B76">
       <text>
         <t xml:space="preserve">(PTZ-430, PTZ-431W, PTZ-630, PTZ-631W, PTZ-930, PTZ-1230, PTZ-1231W)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B76">
+    <comment authorId="0" ref="B77">
       <text>
         <t xml:space="preserve">(XD-0405-U, XD-0608-U, XD-0912-U, XD-1212-U,  XD-1218-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B77">
+    <comment authorId="0" ref="B78">
       <text>
         <t xml:space="preserve">(GD-0405-U, GD-0608-U, GD-0912-U, GD-1212-U, GD-1218-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B78">
+    <comment authorId="0" ref="B79">
       <text>
         <t xml:space="preserve">(CTE-460, CTE-660)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B80">
+    <comment authorId="0" ref="B81">
       <text>
         <t xml:space="preserve">(CTE-450, CTE-650)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B81">
+    <comment authorId="0" ref="B82">
       <text>
         <t xml:space="preserve">(CTE-440, CTE-640)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B82">
+    <comment authorId="0" ref="B83">
       <text>
         <t xml:space="preserve">(CTE-430, CTE-630)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B83">
+    <comment authorId="0" ref="B84">
       <text>
         <t xml:space="preserve">(FW-300, FB-630)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B84">
+    <comment authorId="0" ref="B85">
       <text>
         <t xml:space="preserve">(CTF-430, CTF-221, CTF-420)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B85">
+    <comment authorId="0" ref="B86">
       <text>
         <t xml:space="preserve">(FT-0203-U, FT-0405-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B86">
+    <comment authorId="0" ref="B87">
       <text>
         <t xml:space="preserve">(ET-0405A-U, ET-0507A-U)</t>
       </text>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="228">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -172,7 +172,7 @@
     <t>G640 Rev A</t>
   </si>
   <si>
-    <t>Not Recommended</t>
+    <t>Usually Not Recommended</t>
   </si>
   <si>
     <t>6/10</t>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>S640</t>
-  </si>
-  <si>
-    <t>Usually Not Recommended</t>
   </si>
   <si>
     <t>7/10</t>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>S640 V2</t>
+  </si>
+  <si>
+    <t>Not Recommended</t>
   </si>
   <si>
     <t>5/10</t>
@@ -262,6 +262,15 @@
     <t>Angle snapping issues, input dropping when pressing pen side buttons and non-detachable cable.</t>
   </si>
   <si>
+    <t>Deco Fun XS</t>
+  </si>
+  <si>
+    <t>25-30 USD</t>
+  </si>
+  <si>
+    <t>Input glitching and dropping when pressing pen side buttons, strong anti-chatter (lessened when dragging), and surface prone to loud squeaking when dragging on it.</t>
+  </si>
+  <si>
     <t>S630</t>
   </si>
   <si>
@@ -290,9 +299,6 @@
   </si>
   <si>
     <t>2/10</t>
-  </si>
-  <si>
-    <t>25-30 USD</t>
   </si>
   <si>
     <t>D</t>
@@ -1060,11 +1066,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FFFE9700"/>
       <name val="Calibri"/>
     </font>
@@ -1076,6 +1077,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1222,15 +1228,15 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1831,23 +1837,23 @@
       <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>26</v>
@@ -1856,7 +1862,7 @@
         <v>27</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -1880,34 +1886,34 @@
         <v>35</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="H12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="I12" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -1931,25 +1937,25 @@
         <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>26</v>
@@ -1984,8 +1990,8 @@
       <c r="B14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
+      <c r="C14" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>53</v>
@@ -1993,17 +1999,17 @@
       <c r="E14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>56</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>27</v>
@@ -2035,8 +2041,8 @@
       <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>31</v>
+      <c r="C15" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>53</v>
@@ -2044,17 +2050,17 @@
       <c r="E15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>27</v>
@@ -2081,37 +2087,37 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>55</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -2135,25 +2141,25 @@
         <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>65</v>
+      <c r="F17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>26</v>
@@ -2182,43 +2188,43 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
@@ -2234,37 +2240,37 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="E19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="F19" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>72</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="27" t="s">
-        <v>76</v>
+      <c r="K19" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
@@ -2288,25 +2294,25 @@
         <v>29</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="F20" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>72</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I20" s="27" t="s">
         <v>26</v>
@@ -2315,7 +2321,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
@@ -2335,43 +2341,43 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>62</v>
+      <c r="A21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="H21" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
@@ -2392,32 +2398,32 @@
       <c r="B22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>65</v>
+      <c r="F22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>84</v>
+      <c r="K22" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -2441,34 +2447,34 @@
         <v>51</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>86</v>
+      <c r="G23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>57</v>
+      <c r="K23" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -2494,23 +2500,23 @@
       <c r="B24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="F24" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>86</v>
+      <c r="H24" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>26</v>
@@ -2539,37 +2545,37 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="F25" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="18" t="s">
+      <c r="H25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="14" t="s">
         <v>57</v>
       </c>
       <c r="L25" s="17"/>
@@ -2590,59 +2596,59 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="A26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>17</v>
+      <c r="A27" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2662,88 +2668,88 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
+      <c r="A28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>100</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K29" s="30"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
@@ -2763,36 +2769,38 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -2812,38 +2820,36 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K31" s="30"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
@@ -2863,37 +2869,37 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="E32" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
@@ -2914,37 +2920,37 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="J33" s="14" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
@@ -2965,37 +2971,37 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>81</v>
+        <v>111</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>65</v>
+        <v>104</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -3015,59 +3021,59 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
+      <c r="C35" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>17</v>
+      <c r="A36" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3087,62 +3093,62 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
+      <c r="A37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>20</v>
@@ -3151,25 +3157,25 @@
         <v>21</v>
       </c>
       <c r="E38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -3190,37 +3196,37 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
@@ -3241,37 +3247,37 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>40</v>
+      <c r="F40" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="19" t="s">
-        <v>65</v>
+      <c r="H40" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
@@ -3291,59 +3297,59 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
+      <c r="F41" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>17</v>
+      <c r="A42" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3363,71 +3369,71 @@
       <c r="AA42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
+      <c r="A43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>24</v>
@@ -3436,16 +3442,16 @@
         <v>24</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
@@ -3466,19 +3472,19 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>24</v>
@@ -3487,16 +3493,16 @@
         <v>24</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
@@ -3517,37 +3523,37 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>45</v>
+      <c r="G46" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
@@ -3568,37 +3574,37 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="I47" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
@@ -3619,36 +3625,38 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="F48" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K48" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
@@ -3668,34 +3676,34 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="K49" s="30"/>
       <c r="L49" s="17"/>
@@ -3717,38 +3725,36 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>31</v>
+        <v>139</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="J50" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>100</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K50" s="30"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
@@ -3768,37 +3774,37 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>81</v>
+      <c r="C51" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>65</v>
+        <v>141</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -3818,59 +3824,59 @@
       <c r="AA51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
+      <c r="A52" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>17</v>
+      <c r="A53" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3890,89 +3896,89 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
+      <c r="A54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>37</v>
+        <v>144</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>45</v>
+        <v>146</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J55" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
@@ -3993,13 +3999,13 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>37</v>
+      <c r="C56" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>49</v>
@@ -4008,22 +4014,22 @@
         <v>150</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J56" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
@@ -4044,37 +4050,37 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="F57" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>65</v>
+      <c r="H57" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J57" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
@@ -4098,34 +4104,34 @@
         <v>29</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="F58" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J58" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
@@ -4149,34 +4155,34 @@
         <v>29</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="F59" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>65</v>
+      <c r="H59" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
@@ -4197,37 +4203,37 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="14" t="s">
+      <c r="F60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="G60" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>25</v>
+      <c r="H60" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
@@ -4248,37 +4254,37 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>81</v>
+      <c r="C61" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>65</v>
+        <v>164</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J61" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -4298,59 +4304,89 @@
       <c r="AA61" s="17"/>
     </row>
     <row r="62">
-      <c r="A62" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" s="33" t="s">
+      <c r="A62" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>81</v>
+      <c r="C62" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F62" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="D63" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J62" s="14" t="s">
+      <c r="H63" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>167</v>
+      <c r="K63" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4370,38 +4406,8 @@
       <c r="AA63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>17</v>
+      <c r="A64" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4421,89 +4427,89 @@
       <c r="AA64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
+      <c r="A65" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="D66" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="22" t="s">
-        <v>45</v>
+      <c r="G66" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J66" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
@@ -4524,16 +4530,16 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>174</v>
@@ -4541,20 +4547,20 @@
       <c r="F67" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="22" t="s">
-        <v>45</v>
+      <c r="G67" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J67" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
@@ -4575,16 +4581,16 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>175</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>176</v>
@@ -4592,20 +4598,20 @@
       <c r="F68" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="32" t="s">
-        <v>151</v>
+      <c r="G68" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J68" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
@@ -4626,16 +4632,16 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>177</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>178</v>
@@ -4644,19 +4650,19 @@
         <v>24</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J69" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
@@ -4677,37 +4683,37 @@
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>179</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F70" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J70" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
@@ -4727,29 +4733,59 @@
       <c r="AA70" s="17"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
+      <c r="A71" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
     </row>
     <row r="72">
-      <c r="A72" s="34" t="s">
-        <v>181</v>
+      <c r="A72" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4769,140 +4805,110 @@
       <c r="AA72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F74" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="I74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J74" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="K74" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="35"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="17"/>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="17"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G75" s="12" t="s">
-        <v>190</v>
+      <c r="G75" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
@@ -4923,37 +4929,37 @@
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="D76" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
@@ -4974,37 +4980,37 @@
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F77" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>
@@ -5025,37 +5031,37 @@
     </row>
     <row r="78">
       <c r="A78" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>196</v>
-      </c>
       <c r="K78" s="12" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
@@ -5076,36 +5082,38 @@
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="H79" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K79" s="30"/>
+        <v>198</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
@@ -5125,34 +5133,34 @@
     </row>
     <row r="80">
       <c r="A80" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="K80" s="30"/>
       <c r="L80" s="17"/>
@@ -5174,38 +5182,36 @@
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>200</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>201</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I81" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>202</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="K81" s="30"/>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
@@ -5225,37 +5231,37 @@
     </row>
     <row r="82">
       <c r="A82" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>204</v>
-      </c>
       <c r="H82" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I82" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
@@ -5276,37 +5282,37 @@
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>205</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>206</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I83" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>
@@ -5327,37 +5333,37 @@
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>207</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" s="22" t="s">
         <v>208</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I84" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
@@ -5378,37 +5384,37 @@
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>209</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G85" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>210</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I85" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -5429,37 +5435,37 @@
     </row>
     <row r="86">
       <c r="A86" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" s="22" t="s">
         <v>212</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I86" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
@@ -5480,37 +5486,37 @@
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>213</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
@@ -5531,37 +5537,37 @@
     </row>
     <row r="88">
       <c r="A88" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I88" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
@@ -5581,17 +5587,39 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
+      <c r="A89" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>204</v>
+      </c>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
@@ -32405,15 +32433,44 @@
       <c r="Z1013" s="17"/>
       <c r="AA1013" s="17"/>
     </row>
+    <row r="1014">
+      <c r="A1014" s="17"/>
+      <c r="B1014" s="17"/>
+      <c r="C1014" s="17"/>
+      <c r="D1014" s="17"/>
+      <c r="E1014" s="17"/>
+      <c r="F1014" s="17"/>
+      <c r="G1014" s="17"/>
+      <c r="H1014" s="17"/>
+      <c r="I1014" s="17"/>
+      <c r="J1014" s="17"/>
+      <c r="K1014" s="17"/>
+      <c r="L1014" s="17"/>
+      <c r="M1014" s="17"/>
+      <c r="N1014" s="17"/>
+      <c r="O1014" s="17"/>
+      <c r="P1014" s="17"/>
+      <c r="Q1014" s="17"/>
+      <c r="R1014" s="17"/>
+      <c r="S1014" s="17"/>
+      <c r="T1014" s="17"/>
+      <c r="U1014" s="17"/>
+      <c r="V1014" s="17"/>
+      <c r="W1014" s="17"/>
+      <c r="X1014" s="17"/>
+      <c r="Y1014" s="17"/>
+      <c r="Z1014" s="17"/>
+      <c r="AA1014" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A64:K64"/>
     <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A73:K73"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32423,7 +32480,7 @@
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="A72"/>
+    <hyperlink r:id="rId2" ref="A73"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -32445,12 +32502,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
@@ -32466,47 +32523,47 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="229">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -172,7 +172,7 @@
     <t>G640 Rev A</t>
   </si>
   <si>
-    <t>Usually Not Recommended</t>
+    <t>Not Recommended</t>
   </si>
   <si>
     <t>6/10</t>
@@ -181,13 +181,16 @@
     <t>40 USD</t>
   </si>
   <si>
-    <t>Angle snapping issues, may be unreliable to buy (G640 Rev A and G640 Rev B may not be differentiated), and input dropping when pressing pen side buttons.</t>
+    <t>Angle snapping issues, may be unreliable to buy (even when ordering a Rev A, you may receive a Rev B), and input dropping when pressing pen side buttons.</t>
   </si>
   <si>
     <t>Veikk</t>
   </si>
   <si>
     <t>S640</t>
+  </si>
+  <si>
+    <t>Usually Not Recommended</t>
   </si>
   <si>
     <t>7/10</t>
@@ -221,9 +224,6 @@
   </si>
   <si>
     <t>S640 V2</t>
-  </si>
-  <si>
-    <t>Not Recommended</t>
   </si>
   <si>
     <t>5/10</t>
@@ -541,6 +541,18 @@
     <t>L</t>
   </si>
   <si>
+    <t>CTC-6110WL</t>
+  </si>
+  <si>
+    <t>140-165 USD</t>
+  </si>
+  <si>
+    <t>CTL-6100</t>
+  </si>
+  <si>
+    <t>200 USD</t>
+  </si>
+  <si>
     <t>Deco Pro MW Gen2</t>
   </si>
   <si>
@@ -562,25 +574,16 @@
     <t>Deco Pro XLW Gen2</t>
   </si>
   <si>
-    <t>200 USD</t>
-  </si>
-  <si>
     <t>L+</t>
-  </si>
-  <si>
-    <t>CTC-6110WL</t>
-  </si>
-  <si>
-    <t>140-165 USD</t>
-  </si>
-  <si>
-    <t>CTL-6100</t>
   </si>
   <si>
     <t>Xencelabs</t>
   </si>
   <si>
     <t>Pen Tablet Small</t>
+  </si>
+  <si>
+    <t>100-150 USD</t>
   </si>
   <si>
     <t>Input dropping and angle snapping when pressing pen side buttons, glitchy hover/drag transition, and low pressure scan rate (this causes fast presses to not be detected).</t>
@@ -1066,6 +1069,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FFFE9700"/>
       <name val="Calibri"/>
     </font>
@@ -1077,11 +1085,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1228,15 +1231,15 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1837,23 +1840,23 @@
       <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>31</v>
+      <c r="C11" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="20" t="s">
         <v>39</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>26</v>
@@ -1862,7 +1865,7 @@
         <v>27</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -1886,34 +1889,34 @@
         <v>35</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="21" t="s">
         <v>44</v>
       </c>
+      <c r="F12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -1937,25 +1940,25 @@
         <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="22" t="s">
         <v>48</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
         <v>39</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>26</v>
@@ -1990,8 +1993,8 @@
       <c r="B14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>48</v>
+      <c r="C14" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>53</v>
@@ -1999,17 +2002,17 @@
       <c r="E14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="20" t="s">
         <v>56</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>27</v>
@@ -2041,8 +2044,8 @@
       <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>48</v>
+      <c r="C15" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>53</v>
@@ -2050,17 +2053,17 @@
       <c r="E15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="20" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>27</v>
@@ -2092,8 +2095,8 @@
       <c r="B16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>48</v>
+      <c r="C16" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>53</v>
@@ -2101,17 +2104,17 @@
       <c r="E16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="20" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>27</v>
@@ -2143,7 +2146,7 @@
       <c r="B17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -2152,13 +2155,13 @@
       <c r="E17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I17" s="14" t="s">
@@ -2194,7 +2197,7 @@
       <c r="B18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -2203,13 +2206,13 @@
       <c r="E18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>39</v>
+      <c r="F18" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I18" s="14" t="s">
@@ -2398,7 +2401,7 @@
       <c r="B22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -2413,7 +2416,7 @@
       <c r="G22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I22" s="14" t="s">
@@ -2449,26 +2452,26 @@
       <c r="B23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>27</v>
@@ -2500,7 +2503,7 @@
       <c r="B24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -2515,7 +2518,7 @@
       <c r="G24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="19" t="s">
         <v>88</v>
       </c>
       <c r="I24" s="14" t="s">
@@ -2551,7 +2554,7 @@
       <c r="B25" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -2566,7 +2569,7 @@
       <c r="G25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="19" t="s">
         <v>88</v>
       </c>
       <c r="I25" s="14" t="s">
@@ -2602,7 +2605,7 @@
       <c r="B26" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -2617,7 +2620,7 @@
       <c r="G26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="19" t="s">
         <v>88</v>
       </c>
       <c r="I26" s="18" t="s">
@@ -2778,7 +2781,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>95</v>
@@ -2844,7 +2847,7 @@
         <v>97</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>105</v>
@@ -2893,7 +2896,7 @@
         <v>97</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>27</v>
@@ -2944,7 +2947,7 @@
         <v>97</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>105</v>
@@ -2988,14 +2991,14 @@
       <c r="F34" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>44</v>
+      <c r="G34" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>27</v>
@@ -3027,7 +3030,7 @@
       <c r="B35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -3036,17 +3039,17 @@
       <c r="E35" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>39</v>
+      <c r="F35" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>105</v>
@@ -3169,7 +3172,7 @@
         <v>97</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>105</v>
@@ -3213,14 +3216,14 @@
       <c r="F39" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>44</v>
+      <c r="G39" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>105</v>
@@ -3252,7 +3255,7 @@
       <c r="B40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -3303,7 +3306,7 @@
       <c r="B41" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -3312,13 +3315,13 @@
       <c r="E41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>39</v>
+      <c r="F41" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I41" s="14" t="s">
@@ -3430,7 +3433,7 @@
         <v>110</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>129</v>
@@ -3532,7 +3535,7 @@
         <v>110</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>129</v>
@@ -3591,8 +3594,8 @@
       <c r="F47" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>44</v>
+      <c r="G47" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>97</v>
@@ -3630,7 +3633,7 @@
       <c r="B48" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -3693,8 +3696,8 @@
       <c r="F49" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>44</v>
+      <c r="G49" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>97</v>
@@ -3742,14 +3745,14 @@
       <c r="F50" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>44</v>
+      <c r="G50" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J50" s="27" t="s">
         <v>105</v>
@@ -3779,8 +3782,8 @@
       <c r="B51" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>48</v>
+      <c r="C51" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>49</v>
@@ -3791,8 +3794,8 @@
       <c r="F51" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="21" t="s">
-        <v>44</v>
+      <c r="G51" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>97</v>
@@ -3830,7 +3833,7 @@
       <c r="B52" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -3839,17 +3842,17 @@
       <c r="E52" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="22" t="s">
+      <c r="F52" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52" s="27" t="s">
         <v>105</v>
@@ -3953,8 +3956,8 @@
       <c r="B55" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>31</v>
+      <c r="C55" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>49</v>
@@ -4004,8 +4007,8 @@
       <c r="B56" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>31</v>
+      <c r="C56" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>49</v>
@@ -4016,8 +4019,8 @@
       <c r="F56" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>44</v>
+      <c r="G56" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>97</v>
@@ -4055,8 +4058,8 @@
       <c r="B57" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>31</v>
+      <c r="C57" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>49</v>
@@ -4101,37 +4104,37 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>83</v>
+      <c r="C58" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F58" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>68</v>
+      <c r="F58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J58" s="14" t="s">
-        <v>27</v>
+      <c r="J58" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
@@ -4152,37 +4155,37 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="H59" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J59" s="14" t="s">
-        <v>27</v>
+      <c r="J59" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
@@ -4206,24 +4209,24 @@
         <v>29</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="H60" s="22" t="s">
+      <c r="G60" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I60" s="14" t="s">
@@ -4233,7 +4236,7 @@
         <v>27</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
@@ -4254,37 +4257,37 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>25</v>
+      <c r="H61" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J61" s="27" t="s">
-        <v>101</v>
+      <c r="J61" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -4305,37 +4308,37 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="27" t="s">
-        <v>105</v>
+      <c r="J62" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
@@ -4361,14 +4364,14 @@
       <c r="B63" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F63" s="32" t="s">
         <v>85</v>
@@ -4376,17 +4379,17 @@
       <c r="G63" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K63" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4407,7 +4410,7 @@
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4484,14 +4487,14 @@
       <c r="B66" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>170</v>
+      <c r="C66" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>24</v>
@@ -4533,22 +4536,22 @@
         <v>92</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="21" t="s">
-        <v>44</v>
+      <c r="G67" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>97</v>
@@ -4584,22 +4587,22 @@
         <v>92</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="21" t="s">
-        <v>44</v>
+      <c r="G68" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>97</v>
@@ -4635,16 +4638,16 @@
         <v>92</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F69" s="31" t="s">
         <v>24</v>
@@ -4686,7 +4689,7 @@
         <v>92</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>110</v>
@@ -4695,7 +4698,7 @@
         <v>94</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F70" s="31" t="s">
         <v>24</v>
@@ -4737,7 +4740,7 @@
         <v>92</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>110</v>
@@ -4746,7 +4749,7 @@
         <v>21</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F71" s="31" t="s">
         <v>24</v>
@@ -4785,7 +4788,7 @@
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4806,7 +4809,7 @@
     </row>
     <row r="73">
       <c r="A73" s="34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4881,22 +4884,22 @@
         <v>92</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>97</v>
@@ -4908,7 +4911,7 @@
         <v>101</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
@@ -4932,22 +4935,22 @@
         <v>92</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>97</v>
@@ -4959,7 +4962,7 @@
         <v>27</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
@@ -4983,22 +4986,22 @@
         <v>92</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F77" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>97</v>
@@ -5007,10 +5010,10 @@
         <v>98</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>
@@ -5034,22 +5037,22 @@
         <v>92</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F78" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>97</v>
@@ -5058,10 +5061,10 @@
         <v>98</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
@@ -5085,22 +5088,22 @@
         <v>92</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>97</v>
@@ -5109,7 +5112,7 @@
         <v>26</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>108</v>
@@ -5136,16 +5139,16 @@
         <v>92</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>96</v>
@@ -5157,7 +5160,7 @@
         <v>97</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J80" s="27" t="s">
         <v>101</v>
@@ -5185,22 +5188,22 @@
         <v>92</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>97</v>
@@ -5209,7 +5212,7 @@
         <v>26</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="17"/>
@@ -5234,22 +5237,22 @@
         <v>92</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>97</v>
@@ -5258,10 +5261,10 @@
         <v>26</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
@@ -5285,22 +5288,22 @@
         <v>92</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>97</v>
@@ -5309,10 +5312,10 @@
         <v>26</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>
@@ -5336,22 +5339,22 @@
         <v>92</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G84" s="22" t="s">
-        <v>208</v>
+      <c r="G84" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>97</v>
@@ -5360,10 +5363,10 @@
         <v>26</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
@@ -5387,22 +5390,22 @@
         <v>92</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G85" s="22" t="s">
-        <v>210</v>
+      <c r="G85" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>97</v>
@@ -5411,10 +5414,10 @@
         <v>26</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -5438,22 +5441,22 @@
         <v>92</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F86" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G86" s="22" t="s">
-        <v>212</v>
+      <c r="G86" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>97</v>
@@ -5462,10 +5465,10 @@
         <v>26</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
@@ -5489,22 +5492,22 @@
         <v>92</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F87" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>97</v>
@@ -5513,10 +5516,10 @@
         <v>26</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
@@ -5540,16 +5543,16 @@
         <v>92</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F88" s="29" t="s">
         <v>96</v>
@@ -5564,10 +5567,10 @@
         <v>26</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
@@ -5591,16 +5594,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F89" s="29" t="s">
         <v>96</v>
@@ -5615,10 +5618,10 @@
         <v>26</v>
       </c>
       <c r="J89" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
@@ -32502,12 +32505,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -32523,51 +32526,52 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
@@ -32579,7 +32583,6 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -523,7 +523,7 @@
     <t>Extremely High</t>
   </si>
   <si>
-    <t>Boosted report rate compared to consumer line wacom tablets, and extremely minor anti-chatter on hover.</t>
+    <t>Boosted report rate compared to consumer line wacom tablets, extremely high pressure scan rate (pen taps send almost instantly), and extremely minor anti-chatter on hover.</t>
   </si>
   <si>
     <t>PTH-660</t>
@@ -586,7 +586,7 @@
     <t>100-150 USD</t>
   </si>
   <si>
-    <t>Input dropping and angle snapping when pressing pen side buttons, glitchy hover/drag transition, and low pressure scan rate (this causes fast presses to not be detected).</t>
+    <t>Input dropping and angle snapping when pressing pen side buttons, glitchy hover/drag transition, and 40hz pressure scan rate (this causes fast presses to not be detected).</t>
   </si>
   <si>
     <t>Secondhand High Budget Options</t>
@@ -1530,7 +1530,7 @@
     <col customWidth="1" min="8" max="8" width="20.0"/>
     <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="10" width="18.0"/>
-    <col customWidth="1" min="11" max="11" width="152.71"/>
+    <col customWidth="1" min="11" max="11" width="153.57"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -523,7 +523,7 @@
     <t>Extremely High</t>
   </si>
   <si>
-    <t>Boosted report rate compared to consumer line wacom tablets, extremely high pressure scan rate (pen taps send almost instantly), and extremely minor anti-chatter on hover.</t>
+    <t>Boosted report rate compared to consumer line wacom tablets, extremely high pressure scan rate (pen taps send almost instantly), extremely minor anti-chatter on hover, and glitchy position reporting when pen is tilted roughly 15° or lower to the tablet.</t>
   </si>
   <si>
     <t>PTH-660</t>
@@ -1530,7 +1530,7 @@
     <col customWidth="1" min="8" max="8" width="20.0"/>
     <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="10" width="18.0"/>
-    <col customWidth="1" min="11" max="11" width="153.57"/>
+    <col customWidth="1" min="11" max="11" width="221.0"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -17,57 +17,57 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B76">
+    <comment authorId="0" ref="B74">
       <text>
         <t xml:space="preserve">(PTZ-430, PTZ-431W, PTZ-630, PTZ-631W, PTZ-930, PTZ-1230, PTZ-1231W)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B77">
+    <comment authorId="0" ref="B75">
       <text>
         <t xml:space="preserve">(XD-0405-U, XD-0608-U, XD-0912-U, XD-1212-U,  XD-1218-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B78">
+    <comment authorId="0" ref="B76">
       <text>
         <t xml:space="preserve">(GD-0405-U, GD-0608-U, GD-0912-U, GD-1212-U, GD-1218-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B79">
+    <comment authorId="0" ref="B77">
       <text>
         <t xml:space="preserve">(CTE-460, CTE-660)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B81">
+    <comment authorId="0" ref="B79">
       <text>
         <t xml:space="preserve">(CTE-450, CTE-650)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B82">
+    <comment authorId="0" ref="B80">
       <text>
         <t xml:space="preserve">(CTE-440, CTE-640)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B83">
+    <comment authorId="0" ref="B81">
       <text>
         <t xml:space="preserve">(CTE-430, CTE-630)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B84">
+    <comment authorId="0" ref="B82">
       <text>
         <t xml:space="preserve">(FW-300, FB-630)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B85">
+    <comment authorId="0" ref="B83">
       <text>
         <t xml:space="preserve">(CTF-430, CTF-221, CTF-420)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B86">
+    <comment authorId="0" ref="B84">
       <text>
         <t xml:space="preserve">(FT-0203-U, FT-0405-U)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B87">
+    <comment authorId="0" ref="B85">
       <text>
         <t xml:space="preserve">(ET-0405A-U, ET-0507A-U)</t>
       </text>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="226">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -379,7 +379,7 @@
     <t>CTL/H-480</t>
   </si>
   <si>
-    <t>Recommended For Low Budget</t>
+    <t>Recommended</t>
   </si>
   <si>
     <t>Mid Friction</t>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>CTL/H-460</t>
-  </si>
-  <si>
-    <t>Recommended</t>
   </si>
   <si>
     <t>CTH-661</t>
@@ -485,9 +482,6 @@
   </si>
   <si>
     <t>70-100 USD</t>
-  </si>
-  <si>
-    <t>Not Recommended For Mid Budget</t>
   </si>
   <si>
     <t>CTL-671</t>
@@ -592,12 +586,6 @@
     <t>Secondhand High Budget Options</t>
   </si>
   <si>
-    <t>Not Recommended For High Budget</t>
-  </si>
-  <si>
-    <t>150-200 USD</t>
-  </si>
-  <si>
     <t>PTH-651</t>
   </si>
   <si>
@@ -690,6 +678,9 @@
   </si>
   <si>
     <t>CTE-x60</t>
+  </si>
+  <si>
+    <t>Recommended For Low Budget</t>
   </si>
   <si>
     <r>
@@ -2929,7 +2920,7 @@
         <v>109</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>94</v>
@@ -2977,7 +2968,7 @@
         <v>92</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>20</v>
@@ -3028,7 +3019,7 @@
         <v>92</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>83</v>
@@ -3055,7 +3046,7 @@
         <v>105</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -3076,7 +3067,7 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3151,7 +3142,7 @@
         <v>92</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>20</v>
@@ -3160,7 +3151,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>96</v>
@@ -3178,7 +3169,7 @@
         <v>105</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -3202,7 +3193,7 @@
         <v>92</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>20</v>
@@ -3211,7 +3202,7 @@
         <v>21</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>96</v>
@@ -3229,7 +3220,7 @@
         <v>105</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
@@ -3253,7 +3244,7 @@
         <v>92</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>65</v>
@@ -3262,7 +3253,7 @@
         <v>73</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>23</v>
@@ -3280,7 +3271,7 @@
         <v>101</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
@@ -3304,7 +3295,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>83</v>
@@ -3313,7 +3304,7 @@
         <v>76</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>40</v>
@@ -3331,7 +3322,7 @@
         <v>105</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
@@ -3352,7 +3343,7 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3427,16 +3418,16 @@
         <v>92</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>24</v>
@@ -3454,7 +3445,7 @@
         <v>101</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
@@ -3478,7 +3469,7 @@
         <v>92</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>20</v>
@@ -3487,7 +3478,7 @@
         <v>21</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>24</v>
@@ -3505,7 +3496,7 @@
         <v>101</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
@@ -3529,16 +3520,16 @@
         <v>92</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>24</v>
@@ -3556,7 +3547,7 @@
         <v>101</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
@@ -3580,7 +3571,7 @@
         <v>92</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>20</v>
@@ -3589,7 +3580,7 @@
         <v>21</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>24</v>
@@ -3607,7 +3598,7 @@
         <v>101</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
@@ -3631,22 +3622,22 @@
         <v>92</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="16" t="s">
-        <v>24</v>
+      <c r="G48" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>97</v>
@@ -3655,11 +3646,9 @@
         <v>98</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>102</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K48" s="30"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
@@ -3685,13 +3674,13 @@
         <v>137</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F49" s="29" t="s">
         <v>96</v>
@@ -3703,10 +3692,10 @@
         <v>97</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="K49" s="30"/>
       <c r="L49" s="17"/>
@@ -3731,16 +3720,16 @@
         <v>92</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="F50" s="29" t="s">
         <v>96</v>
@@ -3752,12 +3741,14 @@
         <v>97</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
@@ -3783,31 +3774,31 @@
         <v>140</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G51" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>97</v>
+      <c r="H51" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -3827,59 +3818,59 @@
       <c r="AA51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
+      <c r="A52" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>143</v>
+      <c r="A53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3899,62 +3890,62 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
+      <c r="A54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>37</v>
@@ -3963,25 +3954,25 @@
         <v>49</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>24</v>
+        <v>144</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J55" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
@@ -4017,22 +4008,22 @@
         <v>150</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>45</v>
+        <v>144</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J56" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
@@ -4056,34 +4047,34 @@
         <v>92</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>37</v>
+        <v>152</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="32" t="s">
         <v>153</v>
       </c>
+      <c r="F57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H57" s="13" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="J57" s="27" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
@@ -4110,31 +4101,31 @@
         <v>154</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>23</v>
+      <c r="F58" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>25</v>
+      <c r="H58" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>98</v>
       </c>
       <c r="J58" s="27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
@@ -4155,7 +4146,7 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>156</v>
@@ -4169,8 +4160,8 @@
       <c r="E59" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>40</v>
+      <c r="F59" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>45</v>
@@ -4181,11 +4172,11 @@
       <c r="I59" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J59" s="27" t="s">
-        <v>105</v>
+      <c r="J59" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
@@ -4209,7 +4200,7 @@
         <v>29</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>83</v>
@@ -4218,13 +4209,13 @@
         <v>84</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>74</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>68</v>
@@ -4236,7 +4227,7 @@
         <v>27</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
@@ -4260,7 +4251,7 @@
         <v>29</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>83</v>
@@ -4269,12 +4260,12 @@
         <v>84</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="32" t="s">
         <v>163</v>
       </c>
       <c r="H61" s="19" t="s">
@@ -4287,7 +4278,7 @@
         <v>27</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -4307,11 +4298,11 @@
       <c r="AA61" s="17"/>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="33" t="s">
         <v>164</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>83</v>
@@ -4320,76 +4311,46 @@
         <v>84</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>68</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K62" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
-      <c r="Z62" s="17"/>
-      <c r="AA62" s="17"/>
+      <c r="K62" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="12" t="s">
+      <c r="A63" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K63" s="33" t="s">
-        <v>169</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4409,8 +4370,38 @@
       <c r="AA63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>170</v>
+      <c r="A64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4430,77 +4421,77 @@
       <c r="AA64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
+      <c r="A65" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="16" t="s">
-        <v>24</v>
+      <c r="G66" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>97</v>
@@ -4512,7 +4503,7 @@
         <v>101</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
@@ -4536,13 +4527,13 @@
         <v>92</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>175</v>
@@ -4550,8 +4541,8 @@
       <c r="F67" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="22" t="s">
-        <v>45</v>
+      <c r="G67" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>97</v>
@@ -4563,7 +4554,7 @@
         <v>101</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
@@ -4590,10 +4581,10 @@
         <v>176</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>177</v>
@@ -4601,8 +4592,8 @@
       <c r="F68" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="22" t="s">
-        <v>45</v>
+      <c r="G68" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>97</v>
@@ -4614,7 +4605,7 @@
         <v>101</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
@@ -4641,19 +4632,19 @@
         <v>178</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F69" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>97</v>
@@ -4665,7 +4656,7 @@
         <v>101</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
@@ -4685,220 +4676,220 @@
       <c r="AA69" s="17"/>
     </row>
     <row r="70">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="B73" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F70" s="31" t="s">
+      <c r="C73" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G70" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" s="13" t="s">
+      <c r="G73" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I73" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J70" s="27" t="s">
+      <c r="J73" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="K70" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="17"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="s">
+      <c r="K73" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F71" s="31" t="s">
+      <c r="B74" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G71" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="H71" s="13" t="s">
+      <c r="G74" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I74" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J71" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
-      <c r="V74" s="35"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="35"/>
-      <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
-      <c r="AA74" s="35"/>
+      <c r="J74" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G75" s="12" t="s">
         <v>189</v>
       </c>
       <c r="H75" s="13" t="s">
@@ -4908,10 +4899,10 @@
         <v>98</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
@@ -4935,22 +4926,22 @@
         <v>92</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>97</v>
@@ -4959,10 +4950,10 @@
         <v>98</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
@@ -4986,34 +4977,34 @@
         <v>92</v>
       </c>
       <c r="B77" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>192</v>
-      </c>
       <c r="D77" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>
@@ -5037,35 +5028,33 @@
         <v>92</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F78" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>190</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K78" s="30"/>
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
@@ -5088,22 +5077,22 @@
         <v>92</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>97</v>
@@ -5112,11 +5101,9 @@
         <v>26</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="K79" s="12" t="s">
-        <v>108</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K79" s="30"/>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
@@ -5142,30 +5129,32 @@
         <v>200</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="K80" s="30"/>
+        <v>196</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
@@ -5188,22 +5177,22 @@
         <v>92</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>97</v>
@@ -5212,9 +5201,11 @@
         <v>26</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="K81" s="30"/>
+        <v>191</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
@@ -5237,22 +5228,22 @@
         <v>92</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>204</v>
+      <c r="G82" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>97</v>
@@ -5261,10 +5252,10 @@
         <v>26</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
@@ -5288,22 +5279,22 @@
         <v>92</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G83" s="16" t="s">
-        <v>207</v>
+      <c r="G83" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>97</v>
@@ -5312,10 +5303,10 @@
         <v>26</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>
@@ -5339,22 +5330,22 @@
         <v>92</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>97</v>
@@ -5363,10 +5354,10 @@
         <v>26</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
@@ -5390,22 +5381,22 @@
         <v>92</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G85" s="19" t="s">
-        <v>211</v>
+      <c r="G85" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>97</v>
@@ -5414,10 +5405,10 @@
         <v>26</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -5441,22 +5432,22 @@
         <v>92</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F86" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G86" s="19" t="s">
-        <v>213</v>
+      <c r="G86" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>97</v>
@@ -5465,10 +5456,10 @@
         <v>26</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
@@ -5495,19 +5486,19 @@
         <v>214</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F87" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>97</v>
@@ -5516,10 +5507,10 @@
         <v>26</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
@@ -5539,39 +5530,17 @@
       <c r="AA87" s="17"/>
     </row>
     <row r="88">
-      <c r="A88" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J88" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
@@ -5590,39 +5559,17 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89">
-      <c r="A89" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
@@ -32407,73 +32354,15 @@
       <c r="Z1012" s="17"/>
       <c r="AA1012" s="17"/>
     </row>
-    <row r="1013">
-      <c r="A1013" s="17"/>
-      <c r="B1013" s="17"/>
-      <c r="C1013" s="17"/>
-      <c r="D1013" s="17"/>
-      <c r="E1013" s="17"/>
-      <c r="F1013" s="17"/>
-      <c r="G1013" s="17"/>
-      <c r="H1013" s="17"/>
-      <c r="I1013" s="17"/>
-      <c r="J1013" s="17"/>
-      <c r="K1013" s="17"/>
-      <c r="L1013" s="17"/>
-      <c r="M1013" s="17"/>
-      <c r="N1013" s="17"/>
-      <c r="O1013" s="17"/>
-      <c r="P1013" s="17"/>
-      <c r="Q1013" s="17"/>
-      <c r="R1013" s="17"/>
-      <c r="S1013" s="17"/>
-      <c r="T1013" s="17"/>
-      <c r="U1013" s="17"/>
-      <c r="V1013" s="17"/>
-      <c r="W1013" s="17"/>
-      <c r="X1013" s="17"/>
-      <c r="Y1013" s="17"/>
-      <c r="Z1013" s="17"/>
-      <c r="AA1013" s="17"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="17"/>
-      <c r="B1014" s="17"/>
-      <c r="C1014" s="17"/>
-      <c r="D1014" s="17"/>
-      <c r="E1014" s="17"/>
-      <c r="F1014" s="17"/>
-      <c r="G1014" s="17"/>
-      <c r="H1014" s="17"/>
-      <c r="I1014" s="17"/>
-      <c r="J1014" s="17"/>
-      <c r="K1014" s="17"/>
-      <c r="L1014" s="17"/>
-      <c r="M1014" s="17"/>
-      <c r="N1014" s="17"/>
-      <c r="O1014" s="17"/>
-      <c r="P1014" s="17"/>
-      <c r="Q1014" s="17"/>
-      <c r="R1014" s="17"/>
-      <c r="S1014" s="17"/>
-      <c r="T1014" s="17"/>
-      <c r="U1014" s="17"/>
-      <c r="V1014" s="17"/>
-      <c r="W1014" s="17"/>
-      <c r="X1014" s="17"/>
-      <c r="Y1014" s="17"/>
-      <c r="Z1014" s="17"/>
-      <c r="AA1014" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A71:K71"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32483,7 +32372,7 @@
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="A73"/>
+    <hyperlink r:id="rId2" ref="A71"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -32505,12 +32394,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -32526,47 +32415,47 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="42" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -415,7 +415,7 @@
     <t>CTL/H-490</t>
   </si>
   <si>
-    <t>Hardware smoothing is disabled when pen pressure is detected, and glitchy hover/drag transition.</t>
+    <t>Hardware smoothing is disabled when pen pressure is detected (performance ranking B while dragging), and glitchy hover/drag transition.</t>
   </si>
   <si>
     <t>Brand New Mid Budget Options</t>
@@ -451,10 +451,10 @@
     <t>CTL-4100</t>
   </si>
   <si>
-    <t>70-80 USD</t>
+    <t>40-70 USD</t>
   </si>
   <si>
-    <t>Hardware smoothing is disabled when pen pressure is detected, minor anti-chatter remains.</t>
+    <t>Hardware smoothing is disabled when pen pressure is detected (performance ranking A while dragging), minor anti-chatter remains.</t>
   </si>
   <si>
     <t>Secondhand Mid Budget Options</t>
@@ -3301,7 +3301,7 @@
         <v>83</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>124</v>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -262,15 +262,6 @@
     <t>Angle snapping issues, input dropping when pressing pen side buttons and non-detachable cable.</t>
   </si>
   <si>
-    <t>Deco Fun XS</t>
-  </si>
-  <si>
-    <t>25-30 USD</t>
-  </si>
-  <si>
-    <t>Input glitching and dropping when pressing pen side buttons, strong anti-chatter (lessened when dragging), and surface prone to loud squeaking when dragging on it.</t>
-  </si>
-  <si>
     <t>S630</t>
   </si>
   <si>
@@ -290,6 +281,15 @@
   </si>
   <si>
     <t>35-40 USD</t>
+  </si>
+  <si>
+    <t>Deco Fun XS or osu!tablet intro</t>
+  </si>
+  <si>
+    <t>25-30 USD</t>
+  </si>
+  <si>
+    <t>Hardware smoothing changes to Decent and strong anti-chatter is lessened when dragging, hardware smoothing applies stronger the slower the pen is moved, input glitching and dropping when pressing pen side buttons, and surface prone to loud squeaking when dragging on it.</t>
   </si>
   <si>
     <t>Xenx</t>
@@ -1230,6 +1230,9 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1238,9 +1241,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1512,7 +1512,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.86"/>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
+    <col customWidth="1" min="2" max="2" width="28.29"/>
     <col customWidth="1" min="3" max="3" width="33.14"/>
     <col customWidth="1" min="4" max="4" width="26.29"/>
     <col customWidth="1" min="5" max="5" width="17.43"/>
@@ -1521,7 +1521,8 @@
     <col customWidth="1" min="8" max="8" width="20.0"/>
     <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="10" width="18.0"/>
-    <col customWidth="1" min="11" max="11" width="221.0"/>
+    <col customWidth="1" min="11" max="11" width="121.0"/>
+    <col customWidth="1" min="12" max="12" width="124.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1705,7 +1706,6 @@
       <c r="K8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1756,7 +1756,6 @@
       <c r="K9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -1807,7 +1806,6 @@
       <c r="K10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -1858,7 +1856,6 @@
       <c r="K11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -1909,7 +1906,6 @@
       <c r="K12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1960,7 +1956,6 @@
       <c r="K13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -2011,7 +2006,6 @@
       <c r="K14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -2062,7 +2056,6 @@
       <c r="K15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -2081,19 +2074,19 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>40</v>
@@ -2101,19 +2094,18 @@
       <c r="G16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>56</v>
+      <c r="H16" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="17"/>
+        <v>57</v>
+      </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -2135,13 +2127,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>67</v>
@@ -2149,11 +2141,11 @@
       <c r="F17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>55</v>
+      <c r="G17" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>26</v>
@@ -2164,7 +2156,6 @@
       <c r="K17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -2183,42 +2174,41 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>24</v>
+      <c r="G18" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
@@ -2239,23 +2229,23 @@
       <c r="B19" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>65</v>
+      <c r="C19" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="23" t="s">
-        <v>68</v>
+      <c r="H19" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>26</v>
@@ -2266,10 +2256,9 @@
       <c r="K19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
@@ -2290,8 +2279,8 @@
       <c r="B20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>65</v>
+      <c r="C20" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>76</v>
@@ -2299,14 +2288,14 @@
       <c r="E20" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>68</v>
+      <c r="H20" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="I20" s="27" t="s">
         <v>26</v>
@@ -2317,10 +2306,9 @@
       <c r="K20" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -2341,8 +2329,8 @@
       <c r="B21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>65</v>
+      <c r="C21" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>76</v>
@@ -2350,14 +2338,14 @@
       <c r="E21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="23" t="s">
-        <v>68</v>
+      <c r="H21" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="I21" s="27" t="s">
         <v>26</v>
@@ -2368,10 +2356,9 @@
       <c r="K21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
@@ -2393,7 +2380,7 @@
         <v>80</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>76</v>
@@ -2401,14 +2388,14 @@
       <c r="E22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>26</v>
@@ -2419,7 +2406,6 @@
       <c r="K22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
@@ -2459,7 +2445,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>46</v>
@@ -2470,7 +2456,6 @@
       <c r="K23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
@@ -2521,7 +2506,6 @@
       <c r="K24" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -2572,7 +2556,6 @@
       <c r="K25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -2603,7 +2586,7 @@
         <v>84</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>85</v>
@@ -2623,7 +2606,6 @@
       <c r="K26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -2695,7 +2677,6 @@
       <c r="K28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2744,7 +2725,6 @@
         <v>27</v>
       </c>
       <c r="K29" s="30"/>
-      <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
@@ -2795,7 +2775,6 @@
       <c r="K30" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
@@ -2844,7 +2823,6 @@
         <v>105</v>
       </c>
       <c r="K31" s="30"/>
-      <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
@@ -2895,7 +2873,6 @@
       <c r="K32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
@@ -2946,7 +2923,6 @@
       <c r="K33" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -2997,7 +2973,6 @@
       <c r="K34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
@@ -3037,7 +3012,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>46</v>
@@ -3048,7 +3023,6 @@
       <c r="K35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
@@ -3120,7 +3094,6 @@
       <c r="K37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3171,7 +3144,6 @@
       <c r="K38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
@@ -3222,7 +3194,6 @@
       <c r="K39" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
@@ -3247,7 +3218,7 @@
         <v>120</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>73</v>
@@ -3273,7 +3244,6 @@
       <c r="K40" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
@@ -3313,7 +3283,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>98</v>
@@ -3324,7 +3294,6 @@
       <c r="K41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
@@ -3396,7 +3365,6 @@
       <c r="K43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3447,7 +3415,6 @@
       <c r="K44" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L44" s="17"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
@@ -3498,7 +3465,6 @@
       <c r="K45" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L45" s="17"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
@@ -3549,7 +3515,6 @@
       <c r="K46" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
@@ -3600,7 +3565,6 @@
       <c r="K47" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
@@ -3649,7 +3613,6 @@
         <v>27</v>
       </c>
       <c r="K48" s="30"/>
-      <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
@@ -3698,7 +3661,6 @@
         <v>105</v>
       </c>
       <c r="K49" s="30"/>
-      <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
@@ -3749,7 +3711,6 @@
       <c r="K50" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
@@ -3789,7 +3750,7 @@
         <v>45</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>46</v>
@@ -3800,7 +3761,6 @@
       <c r="K51" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
@@ -3872,7 +3832,6 @@
       <c r="K53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3923,7 +3882,6 @@
       <c r="K54" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L54" s="17"/>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
@@ -3974,7 +3932,6 @@
       <c r="K55" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
@@ -4025,7 +3982,6 @@
       <c r="K56" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
@@ -4050,7 +4006,7 @@
         <v>152</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>76</v>
@@ -4076,7 +4032,6 @@
       <c r="K57" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L57" s="17"/>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
@@ -4116,7 +4071,7 @@
         <v>45</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>98</v>
@@ -4127,7 +4082,6 @@
       <c r="K58" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
@@ -4160,14 +4114,14 @@
       <c r="E59" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>98</v>
@@ -4178,7 +4132,6 @@
       <c r="K59" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
@@ -4211,14 +4164,14 @@
       <c r="E60" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>161</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I60" s="14" t="s">
         <v>98</v>
@@ -4229,7 +4182,6 @@
       <c r="K60" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
@@ -4262,14 +4214,14 @@
       <c r="E61" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>163</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>98</v>
@@ -4280,7 +4232,6 @@
       <c r="K61" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
@@ -4320,7 +4271,7 @@
         <v>24</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>46</v>
@@ -4331,7 +4282,6 @@
       <c r="K62" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -4403,7 +4353,6 @@
       <c r="K64" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -4454,7 +4403,6 @@
       <c r="K65" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L65" s="17"/>
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
@@ -4505,7 +4453,6 @@
       <c r="K66" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L66" s="17"/>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
@@ -4556,7 +4503,6 @@
       <c r="K67" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L67" s="17"/>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
@@ -4607,7 +4553,6 @@
       <c r="K68" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L68" s="17"/>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
@@ -4658,7 +4603,6 @@
       <c r="K69" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
@@ -4751,7 +4695,6 @@
       <c r="K72" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L72" s="35"/>
       <c r="M72" s="35"/>
       <c r="N72" s="35"/>
       <c r="O72" s="35"/>
@@ -4802,7 +4745,6 @@
       <c r="K73" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="L73" s="17"/>
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
@@ -4853,7 +4795,6 @@
       <c r="K74" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
@@ -4904,7 +4845,6 @@
       <c r="K75" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
@@ -4955,7 +4895,6 @@
       <c r="K76" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
@@ -5006,7 +4945,6 @@
       <c r="K77" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L77" s="17"/>
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
@@ -5055,7 +4993,6 @@
         <v>101</v>
       </c>
       <c r="K78" s="30"/>
-      <c r="L78" s="17"/>
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
@@ -5104,7 +5041,6 @@
         <v>196</v>
       </c>
       <c r="K79" s="30"/>
-      <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
@@ -5155,7 +5091,6 @@
       <c r="K80" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
@@ -5206,7 +5141,6 @@
       <c r="K81" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L81" s="17"/>
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
@@ -5257,7 +5191,6 @@
       <c r="K82" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L82" s="17"/>
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
@@ -5308,7 +5241,6 @@
       <c r="K83" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L83" s="17"/>
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
@@ -5359,7 +5291,6 @@
       <c r="K84" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L84" s="17"/>
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
@@ -5410,7 +5341,6 @@
       <c r="K85" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L85" s="17"/>
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
@@ -5461,7 +5391,6 @@
       <c r="K86" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L86" s="17"/>
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
@@ -5512,7 +5441,6 @@
       <c r="K87" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L87" s="17"/>
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
@@ -32355,7 +32283,44 @@
       <c r="AA1012" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="87">
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A42:K42"/>
@@ -32363,13 +32328,49 @@
     <mergeCell ref="A63:K63"/>
     <mergeCell ref="A70:K70"/>
     <mergeCell ref="A71:K71"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="A71"/>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -445,7 +445,7 @@
     <t>90-130 USD</t>
   </si>
   <si>
-    <t>Slight input glitching, report rate dropping when pressing pen side buttons, and horrible glitchy pressure (this is bad for drawing).</t>
+    <t>Slight input glitching, report rate dropping when pressing pen side buttons, and some issues with pressure handling (this is bad for drawing).</t>
   </si>
   <si>
     <t>CTL-4100</t>
@@ -32284,83 +32284,6 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="K38:L38"/>
@@ -32371,6 +32294,83 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A71:K71"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="A71"/>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -32326,13 +32326,13 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K43:L43"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K46:L46"/>
@@ -32340,8 +32340,6 @@
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K57:L57"/>
@@ -32361,17 +32359,17 @@
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="K82:L82"/>
     <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32399,17 +32397,19 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="A27:K27"/>
-    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="A36:K36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
     <mergeCell ref="A42:K42"/>
-    <mergeCell ref="K43:L43"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="A52:K52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
     <mergeCell ref="A63:K63"/>
     <mergeCell ref="A70:K70"/>
     <mergeCell ref="A71:K71"/>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="229">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -544,7 +544,7 @@
     <t>CTL-6100</t>
   </si>
   <si>
-    <t>200 USD</t>
+    <t>100-120 USD</t>
   </si>
   <si>
     <t>Deco Pro MW Gen2</t>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>Deco Pro XLW Gen2</t>
+  </si>
+  <si>
+    <t>200 USD</t>
   </si>
   <si>
     <t>L+</t>
@@ -4101,7 +4104,7 @@
         <v>83</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>155</v>
@@ -4254,13 +4257,13 @@
         <v>84</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F61" s="27" t="s">
         <v>74</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H61" s="20" t="s">
         <v>65</v>
@@ -4292,10 +4295,10 @@
     </row>
     <row r="62">
       <c r="A62" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>83</v>
@@ -4304,7 +4307,7 @@
         <v>84</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>85</v>
@@ -4322,7 +4325,7 @@
         <v>27</v>
       </c>
       <c r="K62" s="36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4416,16 +4419,16 @@
         <v>92</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F65" s="33" t="s">
         <v>24</v>
@@ -4466,7 +4469,7 @@
         <v>92</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>100</v>
@@ -4475,7 +4478,7 @@
         <v>38</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F66" s="33" t="s">
         <v>24</v>
@@ -4516,16 +4519,16 @@
         <v>92</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F67" s="33" t="s">
         <v>24</v>
@@ -4566,7 +4569,7 @@
         <v>92</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>100</v>
@@ -4575,7 +4578,7 @@
         <v>94</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>24</v>
@@ -4616,7 +4619,7 @@
         <v>92</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>100</v>
@@ -4625,7 +4628,7 @@
         <v>21</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>24</v>
@@ -4663,7 +4666,7 @@
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -4684,7 +4687,7 @@
     </row>
     <row r="71">
       <c r="A71" s="37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -4758,22 +4761,22 @@
         <v>92</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>97</v>
@@ -4785,7 +4788,7 @@
         <v>101</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M73" s="18"/>
       <c r="N73" s="18"/>
@@ -4808,22 +4811,22 @@
         <v>92</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>97</v>
@@ -4835,7 +4838,7 @@
         <v>27</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
@@ -4858,22 +4861,22 @@
         <v>92</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>97</v>
@@ -4882,10 +4885,10 @@
         <v>98</v>
       </c>
       <c r="J75" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
@@ -4908,22 +4911,22 @@
         <v>92</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F76" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>97</v>
@@ -4932,10 +4935,10 @@
         <v>98</v>
       </c>
       <c r="J76" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M76" s="18"/>
       <c r="N76" s="18"/>
@@ -4958,22 +4961,22 @@
         <v>92</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F77" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>97</v>
@@ -4982,7 +4985,7 @@
         <v>26</v>
       </c>
       <c r="J77" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K77" s="15" t="s">
         <v>108</v>
@@ -5008,16 +5011,16 @@
         <v>92</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F78" s="31" t="s">
         <v>96</v>
@@ -5056,22 +5059,22 @@
         <v>92</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F79" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>97</v>
@@ -5080,7 +5083,7 @@
         <v>26</v>
       </c>
       <c r="J79" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K79" s="32"/>
       <c r="M79" s="18"/>
@@ -5104,22 +5107,22 @@
         <v>92</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F80" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>97</v>
@@ -5128,10 +5131,10 @@
         <v>26</v>
       </c>
       <c r="J80" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M80" s="18"/>
       <c r="N80" s="18"/>
@@ -5154,22 +5157,22 @@
         <v>92</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F81" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>97</v>
@@ -5178,10 +5181,10 @@
         <v>26</v>
       </c>
       <c r="J81" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
@@ -5204,22 +5207,22 @@
         <v>92</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F82" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>97</v>
@@ -5228,10 +5231,10 @@
         <v>26</v>
       </c>
       <c r="J82" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
@@ -5254,22 +5257,22 @@
         <v>92</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>97</v>
@@ -5278,10 +5281,10 @@
         <v>26</v>
       </c>
       <c r="J83" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
@@ -5304,22 +5307,22 @@
         <v>92</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>97</v>
@@ -5328,10 +5331,10 @@
         <v>26</v>
       </c>
       <c r="J84" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
@@ -5354,22 +5357,22 @@
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>96</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>97</v>
@@ -5378,10 +5381,10 @@
         <v>26</v>
       </c>
       <c r="J85" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
@@ -5404,16 +5407,16 @@
         <v>92</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F86" s="31" t="s">
         <v>96</v>
@@ -5428,10 +5431,10 @@
         <v>26</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
@@ -5454,16 +5457,16 @@
         <v>92</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F87" s="31" t="s">
         <v>96</v>
@@ -5478,10 +5481,10 @@
         <v>26</v>
       </c>
       <c r="J87" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M87" s="18"/>
       <c r="N87" s="18"/>
@@ -32493,22 +32496,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
@@ -32524,47 +32527,47 @@
     </row>
     <row r="7">
       <c r="A7" s="43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="232">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -544,74 +544,6 @@
     <t>250 USD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Untested </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">(likely </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF05AEF6"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>S+</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Untested </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">(likely </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF33CC33"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>None</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Highest report rate wacom tablet (300hz) and report rate drops to 200hz when using certain non-stock pens.</t>
   </si>
   <si>
@@ -621,146 +553,10 @@
     <t>380 USD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Untested </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">(likely </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF05AEF6"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>S+</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Untested </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">(likely </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF33CC33"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>None</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>PTK-870</t>
   </si>
   <si>
     <t>500 USD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Untested </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">(likely </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF05AEF6"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>S+</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Untested </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">(likely </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF33CC33"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>None</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Usually Not Recommended</t>
@@ -4505,22 +4301,22 @@
         <v>154</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I61" s="41" t="s">
         <v>153</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="J61" s="35" t="s">
         <v>101</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="24"/>
@@ -4543,7 +4339,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>153</v>
@@ -4552,25 +4348,25 @@
         <v>153</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F62" s="41" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>54</v>
       </c>
       <c r="H62" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62" s="41" t="s">
         <v>153</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="J62" s="35" t="s">
         <v>101</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M62" s="24"/>
       <c r="N62" s="24"/>
@@ -4593,7 +4389,7 @@
         <v>18</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>153</v>
@@ -4602,25 +4398,25 @@
         <v>153</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>147</v>
       </c>
       <c r="H63" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="I63" s="41" t="s">
         <v>153</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="J63" s="35" t="s">
         <v>101</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
@@ -4646,7 +4442,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>47</v>
@@ -4696,13 +4492,13 @@
         <v>132</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F65" s="39" t="s">
         <v>129</v>
@@ -4743,16 +4539,16 @@
         <v>18</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F66" s="39" t="s">
         <v>129</v>
@@ -4793,7 +4589,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>70</v>
@@ -4802,7 +4598,7 @@
         <v>67</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>34</v>
@@ -4843,7 +4639,7 @@
         <v>39</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>89</v>
@@ -4852,7 +4648,7 @@
         <v>80</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>82</v>
@@ -4870,7 +4666,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="24"/>
@@ -4893,7 +4689,7 @@
         <v>39</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>89</v>
@@ -4902,13 +4698,13 @@
         <v>80</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>82</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>72</v>
@@ -4920,7 +4716,7 @@
         <v>37</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M69" s="24"/>
       <c r="N69" s="24"/>
@@ -4943,7 +4739,7 @@
         <v>39</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>89</v>
@@ -4952,13 +4748,13 @@
         <v>80</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F70" s="33" t="s">
         <v>82</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H70" s="26" t="s">
         <v>72</v>
@@ -4970,7 +4766,7 @@
         <v>37</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M70" s="24"/>
       <c r="N70" s="24"/>
@@ -4990,10 +4786,10 @@
     </row>
     <row r="71">
       <c r="A71" s="42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>89</v>
@@ -5002,7 +4798,7 @@
         <v>80</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F71" s="40" t="s">
         <v>90</v>
@@ -5020,7 +4816,7 @@
         <v>37</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -5040,7 +4836,7 @@
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -5114,7 +4910,7 @@
         <v>18</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>31</v>
@@ -5123,7 +4919,7 @@
         <v>108</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>129</v>
@@ -5164,7 +4960,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>31</v>
@@ -5173,7 +4969,7 @@
         <v>108</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F75" s="39" t="s">
         <v>24</v>
@@ -5214,7 +5010,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>31</v>
@@ -5223,7 +5019,7 @@
         <v>108</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F76" s="39" t="s">
         <v>24</v>
@@ -5261,7 +5057,7 @@
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -5282,7 +5078,7 @@
     </row>
     <row r="78">
       <c r="A78" s="44" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -5356,22 +5152,22 @@
         <v>18</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F80" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G80" s="46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>25</v>
@@ -5383,7 +5179,7 @@
         <v>101</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
@@ -5406,22 +5202,22 @@
         <v>18</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F81" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H81" s="19" t="s">
         <v>25</v>
@@ -5433,7 +5229,7 @@
         <v>37</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M81" s="24"/>
       <c r="N81" s="24"/>
@@ -5456,22 +5252,22 @@
         <v>18</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F82" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H82" s="19" t="s">
         <v>25</v>
@@ -5480,10 +5276,10 @@
         <v>98</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K82" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M82" s="24"/>
       <c r="N82" s="24"/>
@@ -5506,22 +5302,22 @@
         <v>18</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F83" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H83" s="19" t="s">
         <v>25</v>
@@ -5530,10 +5326,10 @@
         <v>98</v>
       </c>
       <c r="J83" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M83" s="24"/>
       <c r="N83" s="24"/>
@@ -5556,22 +5352,22 @@
         <v>18</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H84" s="19" t="s">
         <v>25</v>
@@ -5580,7 +5376,7 @@
         <v>36</v>
       </c>
       <c r="J84" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>109</v>
@@ -5606,16 +5402,16 @@
         <v>18</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F85" s="37" t="s">
         <v>23</v>
@@ -5654,22 +5450,22 @@
         <v>18</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F86" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H86" s="19" t="s">
         <v>25</v>
@@ -5678,7 +5474,7 @@
         <v>36</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K86" s="38"/>
       <c r="M86" s="24"/>
@@ -5702,22 +5498,22 @@
         <v>18</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F87" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H87" s="19" t="s">
         <v>25</v>
@@ -5726,10 +5522,10 @@
         <v>36</v>
       </c>
       <c r="J87" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K87" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="K87" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="M87" s="24"/>
       <c r="N87" s="24"/>
@@ -5752,22 +5548,22 @@
         <v>18</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F88" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>25</v>
@@ -5776,10 +5572,10 @@
         <v>36</v>
       </c>
       <c r="J88" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M88" s="24"/>
       <c r="N88" s="24"/>
@@ -5802,22 +5598,22 @@
         <v>18</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F89" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>25</v>
@@ -5826,10 +5622,10 @@
         <v>36</v>
       </c>
       <c r="J89" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K89" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="K89" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
@@ -5852,22 +5648,22 @@
         <v>18</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F90" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H90" s="19" t="s">
         <v>25</v>
@@ -5876,10 +5672,10 @@
         <v>36</v>
       </c>
       <c r="J90" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K90" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="K90" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5902,22 +5698,22 @@
         <v>18</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F91" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H91" s="19" t="s">
         <v>25</v>
@@ -5926,10 +5722,10 @@
         <v>36</v>
       </c>
       <c r="J91" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K91" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="K91" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="M91" s="24"/>
       <c r="N91" s="24"/>
@@ -5952,22 +5748,22 @@
         <v>18</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F92" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H92" s="19" t="s">
         <v>25</v>
@@ -5976,10 +5772,10 @@
         <v>36</v>
       </c>
       <c r="J92" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K92" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="K92" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="M92" s="24"/>
       <c r="N92" s="24"/>
@@ -6002,16 +5798,16 @@
         <v>18</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>23</v>
@@ -6026,10 +5822,10 @@
         <v>36</v>
       </c>
       <c r="J93" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K93" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="K93" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="M93" s="24"/>
       <c r="N93" s="24"/>
@@ -6052,16 +5848,16 @@
         <v>18</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F94" s="37" t="s">
         <v>23</v>
@@ -6076,10 +5872,10 @@
         <v>36</v>
       </c>
       <c r="J94" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K94" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="K94" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="M94" s="24"/>
       <c r="N94" s="24"/>
@@ -32924,49 +32720,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K61:L61"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32975,13 +32728,13 @@
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
@@ -32995,29 +32748,72 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A28:K28"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:K39"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K74:L74"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
     <mergeCell ref="A46:K46"/>
-    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
     <mergeCell ref="A59:K59"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K50:L50"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="A9"/>
@@ -33106,22 +32902,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="47" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
@@ -33137,47 +32933,47 @@
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="51" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="53" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -544,7 +544,7 @@
     <t>250 USD</t>
   </si>
   <si>
-    <t>Highest report rate wacom tablet (300hz) and report rate drops to 200hz when using certain non-stock pens.</t>
+    <t>Highest report rate wacom tablet (300hz) and report rate drops to 200-240hz when using certain non-stock pens.</t>
   </si>
   <si>
     <t>PTK-670</t>
@@ -32720,6 +32720,54 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32764,56 +32812,8 @@
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
     <mergeCell ref="A46:K46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="A9"/>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -32740,12 +32740,12 @@
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="A72:K72"/>
     <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="K75:L75"/>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="233">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -538,13 +538,16 @@
     <t>PTK-470</t>
   </si>
   <si>
-    <t>Untested</t>
+    <t>Usually Not Recommended</t>
+  </si>
+  <si>
+    <t>6/10</t>
   </si>
   <si>
     <t>250 USD</t>
   </si>
   <si>
-    <t>Highest report rate wacom tablet (300hz) and report rate drops to 200-240hz when using certain non-stock pens.</t>
+    <t>Highest report rate wacom tablet (300hz), report rate drops to 200-240hz when using certain non-stock pens, stock pen is modular, and extremely minor anti-chatter on hover.</t>
   </si>
   <si>
     <t>PTK-670</t>
@@ -559,7 +562,7 @@
     <t>500 USD</t>
   </si>
   <si>
-    <t>Usually Not Recommended</t>
+    <t>Boosted report rate (200hz) compared to consumer line wacom tablets (133hz), extremely high pressure scan rate (pen taps send almost instantly, this is good for tapx), extremely minor anti-chatter on hover, and glitchy position reporting when pen is tilted roughly 15° or lower to the tablet.</t>
   </si>
   <si>
     <t>350 USD</t>
@@ -982,7 +985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1135,11 +1138,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
@@ -1213,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1338,42 +1336,39 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1608,7 +1603,7 @@
     <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="10" width="18.0"/>
     <col customWidth="1" min="11" max="11" width="121.0"/>
-    <col customWidth="1" min="12" max="12" width="124.43"/>
+    <col customWidth="1" min="12" max="12" width="134.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4291,23 +4286,23 @@
       <c r="B61" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="41" t="s">
-        <v>153</v>
+      <c r="D61" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="41" t="s">
-        <v>153</v>
+      <c r="H61" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="I61" s="20" t="s">
         <v>98</v>
@@ -4316,7 +4311,7 @@
         <v>101</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="24"/>
@@ -4339,25 +4334,25 @@
         <v>18</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="41" t="s">
-        <v>153</v>
+      <c r="D62" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H62" s="41" t="s">
-        <v>153</v>
+      <c r="H62" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="I62" s="20" t="s">
         <v>98</v>
@@ -4366,7 +4361,7 @@
         <v>101</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M62" s="24"/>
       <c r="N62" s="24"/>
@@ -4389,25 +4384,25 @@
         <v>18</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="41" t="s">
-        <v>153</v>
+      <c r="D63" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H63" s="41" t="s">
-        <v>153</v>
+      <c r="H63" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="I63" s="20" t="s">
         <v>98</v>
@@ -4416,7 +4411,7 @@
         <v>101</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
@@ -4442,13 +4437,13 @@
         <v>127</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F64" s="39" t="s">
         <v>129</v>
@@ -4466,7 +4461,7 @@
         <v>37</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="M64" s="24"/>
       <c r="N64" s="24"/>
@@ -4492,13 +4487,13 @@
         <v>132</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F65" s="39" t="s">
         <v>129</v>
@@ -4516,7 +4511,7 @@
         <v>101</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -4539,16 +4534,16 @@
         <v>18</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F66" s="39" t="s">
         <v>129</v>
@@ -4566,7 +4561,7 @@
         <v>101</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
@@ -4589,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>70</v>
@@ -4598,7 +4593,7 @@
         <v>67</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>34</v>
@@ -4639,7 +4634,7 @@
         <v>39</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>89</v>
@@ -4648,7 +4643,7 @@
         <v>80</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>82</v>
@@ -4666,7 +4661,7 @@
         <v>37</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="24"/>
@@ -4689,7 +4684,7 @@
         <v>39</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>89</v>
@@ -4698,13 +4693,13 @@
         <v>80</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>82</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>72</v>
@@ -4716,7 +4711,7 @@
         <v>37</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M69" s="24"/>
       <c r="N69" s="24"/>
@@ -4739,7 +4734,7 @@
         <v>39</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>89</v>
@@ -4748,13 +4743,13 @@
         <v>80</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F70" s="33" t="s">
         <v>82</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H70" s="26" t="s">
         <v>72</v>
@@ -4766,7 +4761,7 @@
         <v>37</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M70" s="24"/>
       <c r="N70" s="24"/>
@@ -4785,11 +4780,11 @@
       <c r="AA70" s="24"/>
     </row>
     <row r="71">
-      <c r="A71" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="B71" s="42" t="s">
+      <c r="A71" s="41" t="s">
         <v>176</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>89</v>
@@ -4798,7 +4793,7 @@
         <v>80</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F71" s="40" t="s">
         <v>90</v>
@@ -4815,8 +4810,8 @@
       <c r="J71" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K71" s="43" t="s">
-        <v>178</v>
+      <c r="K71" s="42" t="s">
+        <v>179</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -4836,7 +4831,7 @@
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4910,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>31</v>
@@ -4919,7 +4914,7 @@
         <v>108</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>129</v>
@@ -4960,7 +4955,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>31</v>
@@ -4969,7 +4964,7 @@
         <v>108</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F75" s="39" t="s">
         <v>24</v>
@@ -5010,7 +5005,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>31</v>
@@ -5019,7 +5014,7 @@
         <v>108</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F76" s="39" t="s">
         <v>24</v>
@@ -5057,7 +5052,7 @@
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -5077,8 +5072,8 @@
       <c r="AA77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="44" t="s">
-        <v>184</v>
+      <c r="A78" s="43" t="s">
+        <v>185</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -5131,43 +5126,43 @@
       <c r="K79" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
-      <c r="Q79" s="45"/>
-      <c r="R79" s="45"/>
-      <c r="S79" s="45"/>
-      <c r="T79" s="45"/>
-      <c r="U79" s="45"/>
-      <c r="V79" s="45"/>
-      <c r="W79" s="45"/>
-      <c r="X79" s="45"/>
-      <c r="Y79" s="45"/>
-      <c r="Z79" s="45"/>
-      <c r="AA79" s="45"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
+      <c r="U79" s="44"/>
+      <c r="V79" s="44"/>
+      <c r="W79" s="44"/>
+      <c r="X79" s="44"/>
+      <c r="Y79" s="44"/>
+      <c r="Z79" s="44"/>
+      <c r="AA79" s="44"/>
     </row>
     <row r="80">
       <c r="A80" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F80" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="46" t="s">
-        <v>189</v>
+      <c r="G80" s="45" t="s">
+        <v>190</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>25</v>
@@ -5179,7 +5174,7 @@
         <v>101</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
@@ -5202,22 +5197,22 @@
         <v>18</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F81" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H81" s="19" t="s">
         <v>25</v>
@@ -5229,7 +5224,7 @@
         <v>37</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M81" s="24"/>
       <c r="N81" s="24"/>
@@ -5252,22 +5247,22 @@
         <v>18</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F82" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H82" s="19" t="s">
         <v>25</v>
@@ -5276,10 +5271,10 @@
         <v>98</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K82" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M82" s="24"/>
       <c r="N82" s="24"/>
@@ -5302,22 +5297,22 @@
         <v>18</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F83" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H83" s="19" t="s">
         <v>25</v>
@@ -5326,10 +5321,10 @@
         <v>98</v>
       </c>
       <c r="J83" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M83" s="24"/>
       <c r="N83" s="24"/>
@@ -5352,22 +5347,22 @@
         <v>18</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H84" s="19" t="s">
         <v>25</v>
@@ -5376,7 +5371,7 @@
         <v>36</v>
       </c>
       <c r="J84" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>109</v>
@@ -5402,16 +5397,16 @@
         <v>18</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F85" s="37" t="s">
         <v>23</v>
@@ -5450,22 +5445,22 @@
         <v>18</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F86" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H86" s="19" t="s">
         <v>25</v>
@@ -5474,7 +5469,7 @@
         <v>36</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K86" s="38"/>
       <c r="M86" s="24"/>
@@ -5498,22 +5493,22 @@
         <v>18</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F87" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H87" s="19" t="s">
         <v>25</v>
@@ -5522,10 +5517,10 @@
         <v>36</v>
       </c>
       <c r="J87" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M87" s="24"/>
       <c r="N87" s="24"/>
@@ -5548,22 +5543,22 @@
         <v>18</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F88" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>25</v>
@@ -5572,10 +5567,10 @@
         <v>36</v>
       </c>
       <c r="J88" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M88" s="24"/>
       <c r="N88" s="24"/>
@@ -5598,22 +5593,22 @@
         <v>18</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F89" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>25</v>
@@ -5622,10 +5617,10 @@
         <v>36</v>
       </c>
       <c r="J89" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
@@ -5648,22 +5643,22 @@
         <v>18</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F90" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H90" s="19" t="s">
         <v>25</v>
@@ -5672,10 +5667,10 @@
         <v>36</v>
       </c>
       <c r="J90" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5698,22 +5693,22 @@
         <v>18</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F91" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H91" s="19" t="s">
         <v>25</v>
@@ -5722,10 +5717,10 @@
         <v>36</v>
       </c>
       <c r="J91" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M91" s="24"/>
       <c r="N91" s="24"/>
@@ -5748,22 +5743,22 @@
         <v>18</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F92" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H92" s="19" t="s">
         <v>25</v>
@@ -5772,10 +5767,10 @@
         <v>36</v>
       </c>
       <c r="J92" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K92" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M92" s="24"/>
       <c r="N92" s="24"/>
@@ -5798,16 +5793,16 @@
         <v>18</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>23</v>
@@ -5822,10 +5817,10 @@
         <v>36</v>
       </c>
       <c r="J93" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K93" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M93" s="24"/>
       <c r="N93" s="24"/>
@@ -5848,16 +5843,16 @@
         <v>18</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F94" s="37" t="s">
         <v>23</v>
@@ -5872,10 +5867,10 @@
         <v>36</v>
       </c>
       <c r="J94" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M94" s="24"/>
       <c r="N94" s="24"/>
@@ -32740,12 +32735,12 @@
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="A72:K72"/>
     <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="K75:L75"/>
@@ -32901,79 +32896,79 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="47" t="s">
-        <v>219</v>
+      <c r="A1" s="46" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="s">
-        <v>220</v>
+      <c r="A2" s="47" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>221</v>
+      <c r="A3" s="47" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>222</v>
+      <c r="A4" s="48" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="str">
+      <c r="A6" s="49" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/125LNzGmidy1gagwYUt12tRhrNdrWFHhWon7kxWY7iWU","Kuuube's Wacom Tablet Mastersheet")</f>
         <v>Kuuube's Wacom Tablet Mastersheet</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
-        <v>223</v>
+      <c r="A7" s="49" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="51" t="s">
-        <v>224</v>
+      <c r="A8" s="50" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="52" t="s">
-        <v>225</v>
+      <c r="A9" s="51" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
-        <v>226</v>
+      <c r="A10" s="48" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="53" t="s">
-        <v>227</v>
+      <c r="A11" s="52" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="50" t="s">
-        <v>228</v>
+      <c r="A12" s="49" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="50" t="s">
-        <v>229</v>
+      <c r="A13" s="49" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="50" t="s">
-        <v>230</v>
+      <c r="A14" s="49" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="50" t="s">
-        <v>231</v>
+      <c r="A15" s="49" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -547,7 +547,7 @@
     <t>250 USD</t>
   </si>
   <si>
-    <t>Highest report rate wacom tablet (300hz), report rate drops to 200-240hz when using certain non-stock pens, stock pen is modular, and extremely minor anti-chatter on hover.</t>
+    <t xml:space="preserve">Highest report rate wacom tablet (300hz), report rate drops to 200-240hz when using certain non-stock pens, stock pen is modular, extremely high pressure scan rate with eager debounce (pen taps send almost instantly, this is good for tapx), and extremely minor anti-chatter on hover.      </t>
   </si>
   <si>
     <t>PTK-670</t>
@@ -1603,7 +1603,7 @@
     <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="10" width="18.0"/>
     <col customWidth="1" min="11" max="11" width="121.0"/>
-    <col customWidth="1" min="12" max="12" width="134.0"/>
+    <col customWidth="1" min="12" max="12" width="134.57"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -32735,12 +32735,12 @@
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="A72:K72"/>
     <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="K75:L75"/>

--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="235">
   <si>
     <t>Kuuube's Tablet Buying Guide</t>
   </si>
@@ -966,7 +966,7 @@
     <t>Info</t>
   </si>
   <si>
-    <t>If you need to contact me personally, join my discord. I may not reply elsewhere.</t>
+    <t>The quickest way to contact me is to join my discord. I may take awhile to reply elsewhere.</t>
   </si>
   <si>
     <t>osu! Profile</t>
@@ -980,12 +980,45 @@
   <si>
     <t>Youtube</t>
   </si>
+  <si>
+    <t>Ko-fi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>Business Inquiries Email (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>DO NOT send me tablet sponsorship offers</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1196,6 +1229,12 @@
       <color rgb="FFFF1600"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1211,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1370,6 +1409,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -32971,16 +33016,19 @@
         <v>232</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K15"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32988,6 +33036,16 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A5"/>
@@ -32998,7 +33056,9 @@
     <hyperlink r:id="rId6" ref="A13"/>
     <hyperlink r:id="rId7" ref="A14"/>
     <hyperlink r:id="rId8" ref="A15"/>
+    <hyperlink r:id="rId9" ref="A16"/>
+    <hyperlink r:id="rId10" ref="A17"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/kuuube's_tablet_buying_guide.xlsx
+++ b/kuuube's_tablet_buying_guide.xlsx
@@ -33042,10 +33042,10 @@
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A5"/>
